--- a/teaching/traditional_assets/database/data/hungary/hungary_beverage_alcoholic.xlsx
+++ b/teaching/traditional_assets/database/data/hungary/hungary_beverage_alcoholic.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="buse_zwack" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,46 +593,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0478</v>
+        <v>0.007650000000000001</v>
       </c>
       <c r="E2">
-        <v>0.0877</v>
+        <v>-0.0168</v>
       </c>
       <c r="G2">
-        <v>0.2603305785123967</v>
+        <v>0.1871194379391101</v>
       </c>
       <c r="H2">
-        <v>0.2603305785123967</v>
+        <v>0.1871194379391101</v>
       </c>
       <c r="I2">
-        <v>0.1710743801652893</v>
+        <v>0.1615925058548009</v>
       </c>
       <c r="J2">
-        <v>0.1445177074320494</v>
+        <v>0.1265343616248082</v>
       </c>
       <c r="K2">
-        <v>7.02</v>
+        <v>5.46</v>
       </c>
       <c r="L2">
-        <v>0.1450413223140496</v>
+        <v>0.1278688524590164</v>
       </c>
       <c r="M2">
-        <v>8.470000000000001</v>
+        <v>1.938</v>
       </c>
       <c r="N2">
-        <v>0.07070116861435727</v>
+        <v>0.01712014134275618</v>
       </c>
       <c r="O2">
-        <v>1.206552706552707</v>
+        <v>0.354945054945055</v>
       </c>
       <c r="P2">
-        <v>8.470000000000001</v>
+        <v>1.938</v>
       </c>
       <c r="Q2">
-        <v>0.07070116861435727</v>
+        <v>0.01712014134275618</v>
       </c>
       <c r="R2">
-        <v>1.206552706552707</v>
+        <v>0.354945054945055</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,70 +641,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.74</v>
+        <v>14.7</v>
       </c>
       <c r="V2">
-        <v>0.01452420701168614</v>
+        <v>0.1298586572438162</v>
       </c>
       <c r="W2">
-        <v>0.3342857142857142</v>
+        <v>0.3269461077844312</v>
       </c>
       <c r="X2">
-        <v>0.07847837703203536</v>
+        <v>0.06287087894257708</v>
       </c>
       <c r="Y2">
-        <v>0.2558073372536789</v>
+        <v>0.2640752288418541</v>
       </c>
       <c r="Z2">
-        <v>2.996904024767802</v>
+        <v>2.744921573669324</v>
       </c>
       <c r="AA2">
-        <v>0.4331056990533246</v>
+        <v>0.3473268990344118</v>
       </c>
       <c r="AB2">
-        <v>0.0783439745427172</v>
+        <v>0.06102565157276277</v>
       </c>
       <c r="AC2">
-        <v>0.3547617245106074</v>
+        <v>0.2863012474616491</v>
       </c>
       <c r="AD2">
-        <v>0.596</v>
+        <v>8.08</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.596</v>
+        <v>8.08</v>
       </c>
       <c r="AG2">
-        <v>-1.144</v>
+        <v>-6.619999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.004950330575766637</v>
+        <v>0.06662269129287599</v>
       </c>
       <c r="AI2">
-        <v>0.03445883441258094</v>
+        <v>0.2867281760113556</v>
       </c>
       <c r="AJ2">
-        <v>-0.009641316073354909</v>
+        <v>-0.06211296678551322</v>
       </c>
       <c r="AK2">
-        <v>-0.07354075597840062</v>
+        <v>-0.4910979228486645</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="AM2">
-        <v>-0.016</v>
+        <v>-0.01600000000000001</v>
       </c>
       <c r="AN2">
-        <v>0.0596</v>
+        <v>0.9699879951980792</v>
+      </c>
+      <c r="AO2">
+        <v>132.6923076923077</v>
       </c>
       <c r="AP2">
-        <v>-0.1144</v>
+        <v>-0.7947178871548618</v>
       </c>
       <c r="AQ2">
-        <v>-517.5</v>
+        <v>-431.2499999999998</v>
       </c>
     </row>
     <row r="3">
@@ -722,46 +727,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0478</v>
+        <v>0.007650000000000001</v>
       </c>
       <c r="E3">
-        <v>0.0877</v>
+        <v>-0.0168</v>
       </c>
       <c r="G3">
-        <v>0.2603305785123967</v>
+        <v>0.1871194379391101</v>
       </c>
       <c r="H3">
-        <v>0.2603305785123967</v>
+        <v>0.1871194379391101</v>
       </c>
       <c r="I3">
-        <v>0.1710743801652893</v>
+        <v>0.1615925058548009</v>
       </c>
       <c r="J3">
-        <v>0.1445177074320494</v>
+        <v>0.1265343616248082</v>
       </c>
       <c r="K3">
-        <v>7.02</v>
+        <v>5.46</v>
       </c>
       <c r="L3">
-        <v>0.1450413223140496</v>
+        <v>0.1278688524590164</v>
       </c>
       <c r="M3">
-        <v>8.470000000000001</v>
+        <v>1.938</v>
       </c>
       <c r="N3">
-        <v>0.07070116861435727</v>
+        <v>0.01712014134275618</v>
       </c>
       <c r="O3">
-        <v>1.206552706552707</v>
+        <v>0.354945054945055</v>
       </c>
       <c r="P3">
-        <v>8.470000000000001</v>
+        <v>1.938</v>
       </c>
       <c r="Q3">
-        <v>0.07070116861435727</v>
+        <v>0.01712014134275618</v>
       </c>
       <c r="R3">
-        <v>1.206552706552707</v>
+        <v>0.354945054945055</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,70 +775,8791 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.74</v>
+        <v>14.7</v>
       </c>
       <c r="V3">
-        <v>0.01452420701168614</v>
+        <v>0.1298586572438162</v>
       </c>
       <c r="W3">
-        <v>0.3342857142857142</v>
+        <v>0.3269461077844312</v>
       </c>
       <c r="X3">
-        <v>0.07847837703203536</v>
+        <v>0.06287087894257708</v>
       </c>
       <c r="Y3">
-        <v>0.2558073372536789</v>
+        <v>0.2640752288418541</v>
       </c>
       <c r="Z3">
-        <v>2.996904024767802</v>
+        <v>2.744921573669324</v>
       </c>
       <c r="AA3">
-        <v>0.4331056990533246</v>
+        <v>0.3473268990344118</v>
       </c>
       <c r="AB3">
-        <v>0.0783439745427172</v>
+        <v>0.06102565157276277</v>
       </c>
       <c r="AC3">
-        <v>0.3547617245106074</v>
+        <v>0.2863012474616491</v>
       </c>
       <c r="AD3">
-        <v>0.596</v>
+        <v>8.08</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.596</v>
+        <v>8.08</v>
       </c>
       <c r="AG3">
-        <v>-1.144</v>
+        <v>-6.619999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.004950330575766637</v>
+        <v>0.06662269129287599</v>
       </c>
       <c r="AI3">
-        <v>0.03445883441258094</v>
+        <v>0.2867281760113556</v>
       </c>
       <c r="AJ3">
-        <v>-0.009641316073354909</v>
+        <v>-0.06211296678551322</v>
       </c>
       <c r="AK3">
-        <v>-0.07354075597840062</v>
+        <v>-0.4910979228486645</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="AM3">
-        <v>-0.016</v>
+        <v>-0.01600000000000001</v>
       </c>
       <c r="AN3">
-        <v>0.0596</v>
+        <v>0.9699879951980792</v>
+      </c>
+      <c r="AO3">
+        <v>132.6923076923077</v>
       </c>
       <c r="AP3">
-        <v>-0.1144</v>
+        <v>-0.7947178871548618</v>
       </c>
       <c r="AQ3">
-        <v>-517.5</v>
+        <v>-431.2499999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Zwack Unicum Nyrt. (BUSE:ZWACK)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BUSE:ZWACK</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Beverage (Alcoholic)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.066622691292876</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>113.2</v>
+      </c>
+      <c r="H2">
+        <v>123.846521247338</v>
+      </c>
+      <c r="I2">
+        <v>106.58</v>
+      </c>
+      <c r="J2">
+        <v>109.146521247338</v>
+      </c>
+      <c r="K2">
+        <v>8.08</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.0610256515727628</v>
+      </c>
+      <c r="N2">
+        <v>0.0596034645093248</v>
+      </c>
+      <c r="O2">
+        <v>0.0351741988174435</v>
+      </c>
+      <c r="P2">
+        <v>0.014742</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0628708789425771</v>
+      </c>
+      <c r="T2">
+        <v>0.0596034645093248</v>
+      </c>
+      <c r="U2">
+        <v>0.7818402435288609</v>
+      </c>
+      <c r="V2">
+        <v>0.734153960484261</v>
+      </c>
+      <c r="W2">
+        <v>10000000</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>113.2</v>
+      </c>
+      <c r="AB2">
+        <v>0.06851895817076799</v>
+      </c>
+      <c r="AC2">
+        <v>0.03865296573345438</v>
+      </c>
+      <c r="AD2">
+        <v>0.09</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>8.33</v>
+      </c>
+      <c r="AH2">
+        <v>1.47</v>
+      </c>
+      <c r="AI2">
+        <v>1.27</v>
+      </c>
+      <c r="AJ2">
+        <v>8.08</v>
+      </c>
+      <c r="AK2">
+        <v>8.08</v>
+      </c>
+      <c r="AL2">
+        <v>0.052</v>
+      </c>
+      <c r="AM2">
+        <v>8.08</v>
+      </c>
+      <c r="AN2">
+        <v>14.7</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.05960346450932476</v>
+      </c>
+      <c r="C2">
+        <v>123.8465212473381</v>
+      </c>
+      <c r="D2">
+        <v>109.1465212473381</v>
+      </c>
+      <c r="E2">
+        <v>-8.08</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>14.7</v>
+      </c>
+      <c r="H2">
+        <v>113.2</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>8.33</v>
+      </c>
+      <c r="K2">
+        <v>1.47</v>
+      </c>
+      <c r="L2">
+        <v>6.86</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>6.86</v>
+      </c>
+      <c r="O2">
+        <v>0.6174000000000001</v>
+      </c>
+      <c r="P2">
+        <v>6.2426</v>
+      </c>
+      <c r="Q2">
+        <v>7.7126</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.05960346450932476</v>
+      </c>
+      <c r="T2">
+        <v>0.7341539604842613</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.09</v>
+      </c>
+      <c r="W2">
+        <v>0.014742</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.05961261139126636</v>
+      </c>
+      <c r="C3">
+        <v>122.6168196348807</v>
+      </c>
+      <c r="D3">
+        <v>109.1296196348807</v>
+      </c>
+      <c r="E3">
+        <v>-6.8672</v>
+      </c>
+      <c r="F3">
+        <v>1.2128</v>
+      </c>
+      <c r="G3">
+        <v>14.7</v>
+      </c>
+      <c r="H3">
+        <v>113.2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>8.33</v>
+      </c>
+      <c r="K3">
+        <v>1.47</v>
+      </c>
+      <c r="L3">
+        <v>6.86</v>
+      </c>
+      <c r="M3">
+        <v>0.01964736</v>
+      </c>
+      <c r="N3">
+        <v>6.840352640000001</v>
+      </c>
+      <c r="O3">
+        <v>0.6156317376</v>
+      </c>
+      <c r="P3">
+        <v>6.224720902400001</v>
+      </c>
+      <c r="Q3">
+        <v>7.6947209024</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.06006584989016804</v>
+      </c>
+      <c r="T3">
+        <v>0.7409022443634601</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.09</v>
+      </c>
+      <c r="W3">
+        <v>0.014742</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>349.1563243102382</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.05962175827320797</v>
+      </c>
+      <c r="C4">
+        <v>121.3871232561268</v>
+      </c>
+      <c r="D4">
+        <v>109.1127232561268</v>
+      </c>
+      <c r="E4">
+        <v>-5.6544</v>
+      </c>
+      <c r="F4">
+        <v>2.4256</v>
+      </c>
+      <c r="G4">
+        <v>14.7</v>
+      </c>
+      <c r="H4">
+        <v>113.2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>8.33</v>
+      </c>
+      <c r="K4">
+        <v>1.47</v>
+      </c>
+      <c r="L4">
+        <v>6.86</v>
+      </c>
+      <c r="M4">
+        <v>0.03929472</v>
+      </c>
+      <c r="N4">
+        <v>6.82070528</v>
+      </c>
+      <c r="O4">
+        <v>0.6138634752</v>
+      </c>
+      <c r="P4">
+        <v>6.206841804800001</v>
+      </c>
+      <c r="Q4">
+        <v>7.6768418048</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.06053767170735508</v>
+      </c>
+      <c r="T4">
+        <v>0.7477882483218262</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.09</v>
+      </c>
+      <c r="W4">
+        <v>0.014742</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>174.5781621551191</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.05963090515514959</v>
+      </c>
+      <c r="C5">
+        <v>120.1574321086461</v>
+      </c>
+      <c r="D5">
+        <v>109.0958321086461</v>
+      </c>
+      <c r="E5">
+        <v>-4.4416</v>
+      </c>
+      <c r="F5">
+        <v>3.6384</v>
+      </c>
+      <c r="G5">
+        <v>14.7</v>
+      </c>
+      <c r="H5">
+        <v>113.2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>8.33</v>
+      </c>
+      <c r="K5">
+        <v>1.47</v>
+      </c>
+      <c r="L5">
+        <v>6.86</v>
+      </c>
+      <c r="M5">
+        <v>0.05894207999999999</v>
+      </c>
+      <c r="N5">
+        <v>6.801057920000001</v>
+      </c>
+      <c r="O5">
+        <v>0.6120952128</v>
+      </c>
+      <c r="P5">
+        <v>6.188962707200001</v>
+      </c>
+      <c r="Q5">
+        <v>7.658962707200001</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.06101922180943256</v>
+      </c>
+      <c r="T5">
+        <v>0.7548162317432514</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.09</v>
+      </c>
+      <c r="W5">
+        <v>0.014742</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>116.3854414367461</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.05964005203709118</v>
+      </c>
+      <c r="C6">
+        <v>118.9277461900093</v>
+      </c>
+      <c r="D6">
+        <v>109.0789461900093</v>
+      </c>
+      <c r="E6">
+        <v>-3.2288</v>
+      </c>
+      <c r="F6">
+        <v>4.8512</v>
+      </c>
+      <c r="G6">
+        <v>14.7</v>
+      </c>
+      <c r="H6">
+        <v>113.2</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>8.33</v>
+      </c>
+      <c r="K6">
+        <v>1.47</v>
+      </c>
+      <c r="L6">
+        <v>6.86</v>
+      </c>
+      <c r="M6">
+        <v>0.07858944</v>
+      </c>
+      <c r="N6">
+        <v>6.78141056</v>
+      </c>
+      <c r="O6">
+        <v>0.6103269504</v>
+      </c>
+      <c r="P6">
+        <v>6.1710836096</v>
+      </c>
+      <c r="Q6">
+        <v>7.6410836096</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.06151080420530332</v>
+      </c>
+      <c r="T6">
+        <v>0.7619906314859561</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.09</v>
+      </c>
+      <c r="W6">
+        <v>0.014742</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>87.28908107755954</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.05964919891903278</v>
+      </c>
+      <c r="C7">
+        <v>117.698065497789</v>
+      </c>
+      <c r="D7">
+        <v>109.062065497789</v>
+      </c>
+      <c r="E7">
+        <v>-2.016</v>
+      </c>
+      <c r="F7">
+        <v>6.064</v>
+      </c>
+      <c r="G7">
+        <v>14.7</v>
+      </c>
+      <c r="H7">
+        <v>113.2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>8.33</v>
+      </c>
+      <c r="K7">
+        <v>1.47</v>
+      </c>
+      <c r="L7">
+        <v>6.86</v>
+      </c>
+      <c r="M7">
+        <v>0.0982368</v>
+      </c>
+      <c r="N7">
+        <v>6.761763200000001</v>
+      </c>
+      <c r="O7">
+        <v>0.608558688</v>
+      </c>
+      <c r="P7">
+        <v>6.153204512</v>
+      </c>
+      <c r="Q7">
+        <v>7.623204512</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.06201273570424504</v>
+      </c>
+      <c r="T7">
+        <v>0.7693160712232443</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.09</v>
+      </c>
+      <c r="W7">
+        <v>0.014742</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>69.83126486204763</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.05965834580097441</v>
+      </c>
+      <c r="C8">
+        <v>116.4683900295588</v>
+      </c>
+      <c r="D8">
+        <v>109.0451900295588</v>
+      </c>
+      <c r="E8">
+        <v>-0.8032000000000004</v>
+      </c>
+      <c r="F8">
+        <v>7.2768</v>
+      </c>
+      <c r="G8">
+        <v>14.7</v>
+      </c>
+      <c r="H8">
+        <v>113.2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>8.33</v>
+      </c>
+      <c r="K8">
+        <v>1.47</v>
+      </c>
+      <c r="L8">
+        <v>6.86</v>
+      </c>
+      <c r="M8">
+        <v>0.11788416</v>
+      </c>
+      <c r="N8">
+        <v>6.74211584</v>
+      </c>
+      <c r="O8">
+        <v>0.6067904256</v>
+      </c>
+      <c r="P8">
+        <v>6.1353254144</v>
+      </c>
+      <c r="Q8">
+        <v>7.6053254144</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.06252534659678129</v>
+      </c>
+      <c r="T8">
+        <v>0.7767973713804749</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.09</v>
+      </c>
+      <c r="W8">
+        <v>0.014742</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>58.19272071837303</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.05966749268291602</v>
+      </c>
+      <c r="C9">
+        <v>115.2387197828944</v>
+      </c>
+      <c r="D9">
+        <v>109.0283197828944</v>
+      </c>
+      <c r="E9">
+        <v>0.4096000000000011</v>
+      </c>
+      <c r="F9">
+        <v>8.489600000000001</v>
+      </c>
+      <c r="G9">
+        <v>14.7</v>
+      </c>
+      <c r="H9">
+        <v>113.2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>8.33</v>
+      </c>
+      <c r="K9">
+        <v>1.47</v>
+      </c>
+      <c r="L9">
+        <v>6.86</v>
+      </c>
+      <c r="M9">
+        <v>0.13753152</v>
+      </c>
+      <c r="N9">
+        <v>6.72246848</v>
+      </c>
+      <c r="O9">
+        <v>0.6050221632</v>
+      </c>
+      <c r="P9">
+        <v>6.1174463168</v>
+      </c>
+      <c r="Q9">
+        <v>7.587446316799999</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.06304898137947959</v>
+      </c>
+      <c r="T9">
+        <v>0.7844395597131296</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.09</v>
+      </c>
+      <c r="W9">
+        <v>0.014742</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>49.87947490146258</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.05967663956485761</v>
+      </c>
+      <c r="C10">
+        <v>114.0090547553726</v>
+      </c>
+      <c r="D10">
+        <v>109.0114547553726</v>
+      </c>
+      <c r="E10">
+        <v>1.622400000000001</v>
+      </c>
+      <c r="F10">
+        <v>9.702400000000001</v>
+      </c>
+      <c r="G10">
+        <v>14.7</v>
+      </c>
+      <c r="H10">
+        <v>113.2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>8.33</v>
+      </c>
+      <c r="K10">
+        <v>1.47</v>
+      </c>
+      <c r="L10">
+        <v>6.86</v>
+      </c>
+      <c r="M10">
+        <v>0.15717888</v>
+      </c>
+      <c r="N10">
+        <v>6.70282112</v>
+      </c>
+      <c r="O10">
+        <v>0.6032539008</v>
+      </c>
+      <c r="P10">
+        <v>6.099567219200001</v>
+      </c>
+      <c r="Q10">
+        <v>7.569567219200001</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.06358399952701914</v>
+      </c>
+      <c r="T10">
+        <v>0.792247882574755</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.09</v>
+      </c>
+      <c r="W10">
+        <v>0.014742</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>43.64454053877977</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.05968578644679922</v>
+      </c>
+      <c r="C11">
+        <v>112.7793949445718</v>
+      </c>
+      <c r="D11">
+        <v>108.9945949445718</v>
+      </c>
+      <c r="E11">
+        <v>2.8352</v>
+      </c>
+      <c r="F11">
+        <v>10.9152</v>
+      </c>
+      <c r="G11">
+        <v>14.7</v>
+      </c>
+      <c r="H11">
+        <v>113.2</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>8.33</v>
+      </c>
+      <c r="K11">
+        <v>1.47</v>
+      </c>
+      <c r="L11">
+        <v>6.86</v>
+      </c>
+      <c r="M11">
+        <v>0.17682624</v>
+      </c>
+      <c r="N11">
+        <v>6.683173760000001</v>
+      </c>
+      <c r="O11">
+        <v>0.6014856384</v>
+      </c>
+      <c r="P11">
+        <v>6.081688121600001</v>
+      </c>
+      <c r="Q11">
+        <v>7.551688121600001</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.06413077631516398</v>
+      </c>
+      <c r="T11">
+        <v>0.8002278169278448</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.09</v>
+      </c>
+      <c r="W11">
+        <v>0.014742</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>38.79514714558202</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.05969493332874084</v>
+      </c>
+      <c r="C12">
+        <v>111.5497403480719</v>
+      </c>
+      <c r="D12">
+        <v>108.9777403480719</v>
+      </c>
+      <c r="E12">
+        <v>4.048</v>
+      </c>
+      <c r="F12">
+        <v>12.128</v>
+      </c>
+      <c r="G12">
+        <v>14.7</v>
+      </c>
+      <c r="H12">
+        <v>113.2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>8.33</v>
+      </c>
+      <c r="K12">
+        <v>1.47</v>
+      </c>
+      <c r="L12">
+        <v>6.86</v>
+      </c>
+      <c r="M12">
+        <v>0.1964736</v>
+      </c>
+      <c r="N12">
+        <v>6.6635264</v>
+      </c>
+      <c r="O12">
+        <v>0.599717376</v>
+      </c>
+      <c r="P12">
+        <v>6.063809024</v>
+      </c>
+      <c r="Q12">
+        <v>7.533809024</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.06468970369860093</v>
+      </c>
+      <c r="T12">
+        <v>0.8083850831554478</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.09</v>
+      </c>
+      <c r="W12">
+        <v>0.014742</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>34.91563243102382</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.05970408021068243</v>
+      </c>
+      <c r="C13">
+        <v>110.3200909634544</v>
+      </c>
+      <c r="D13">
+        <v>108.9608909634544</v>
+      </c>
+      <c r="E13">
+        <v>5.2608</v>
+      </c>
+      <c r="F13">
+        <v>13.3408</v>
+      </c>
+      <c r="G13">
+        <v>14.7</v>
+      </c>
+      <c r="H13">
+        <v>113.2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>8.33</v>
+      </c>
+      <c r="K13">
+        <v>1.47</v>
+      </c>
+      <c r="L13">
+        <v>6.86</v>
+      </c>
+      <c r="M13">
+        <v>0.21612096</v>
+      </c>
+      <c r="N13">
+        <v>6.643879040000001</v>
+      </c>
+      <c r="O13">
+        <v>0.5979491136</v>
+      </c>
+      <c r="P13">
+        <v>6.0459299264</v>
+      </c>
+      <c r="Q13">
+        <v>7.5159299264</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.06526119124795779</v>
+      </c>
+      <c r="T13">
+        <v>0.8167256587364798</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.09</v>
+      </c>
+      <c r="W13">
+        <v>0.014742</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>31.74148402820347</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.05971322709262404</v>
+      </c>
+      <c r="C14">
+        <v>109.090446788302</v>
+      </c>
+      <c r="D14">
+        <v>108.944046788302</v>
+      </c>
+      <c r="E14">
+        <v>6.473599999999999</v>
+      </c>
+      <c r="F14">
+        <v>14.5536</v>
+      </c>
+      <c r="G14">
+        <v>14.7</v>
+      </c>
+      <c r="H14">
+        <v>113.2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>8.33</v>
+      </c>
+      <c r="K14">
+        <v>1.47</v>
+      </c>
+      <c r="L14">
+        <v>6.86</v>
+      </c>
+      <c r="M14">
+        <v>0.23576832</v>
+      </c>
+      <c r="N14">
+        <v>6.62423168</v>
+      </c>
+      <c r="O14">
+        <v>0.5961808512</v>
+      </c>
+      <c r="P14">
+        <v>6.028050828800001</v>
+      </c>
+      <c r="Q14">
+        <v>7.4980508288</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.06584566715070914</v>
+      </c>
+      <c r="T14">
+        <v>0.8252557928534445</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.09</v>
+      </c>
+      <c r="W14">
+        <v>0.014742</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>29.09636035918651</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.05972237397456565</v>
+      </c>
+      <c r="C15">
+        <v>107.8608078201992</v>
+      </c>
+      <c r="D15">
+        <v>108.9272078201992</v>
+      </c>
+      <c r="E15">
+        <v>7.686400000000001</v>
+      </c>
+      <c r="F15">
+        <v>15.7664</v>
+      </c>
+      <c r="G15">
+        <v>14.7</v>
+      </c>
+      <c r="H15">
+        <v>113.2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>8.33</v>
+      </c>
+      <c r="K15">
+        <v>1.47</v>
+      </c>
+      <c r="L15">
+        <v>6.86</v>
+      </c>
+      <c r="M15">
+        <v>0.25541568</v>
+      </c>
+      <c r="N15">
+        <v>6.604584320000001</v>
+      </c>
+      <c r="O15">
+        <v>0.5944125888</v>
+      </c>
+      <c r="P15">
+        <v>6.010171731200001</v>
+      </c>
+      <c r="Q15">
+        <v>7.4801717312</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.06644357928110994</v>
+      </c>
+      <c r="T15">
+        <v>0.833982022007581</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.09</v>
+      </c>
+      <c r="W15">
+        <v>0.014742</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>26.85817879309525</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.05973152085650725</v>
+      </c>
+      <c r="C16">
+        <v>106.631174056732</v>
+      </c>
+      <c r="D16">
+        <v>108.910374056732</v>
+      </c>
+      <c r="E16">
+        <v>8.899200000000002</v>
+      </c>
+      <c r="F16">
+        <v>16.9792</v>
+      </c>
+      <c r="G16">
+        <v>14.7</v>
+      </c>
+      <c r="H16">
+        <v>113.2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>8.33</v>
+      </c>
+      <c r="K16">
+        <v>1.47</v>
+      </c>
+      <c r="L16">
+        <v>6.86</v>
+      </c>
+      <c r="M16">
+        <v>0.27506304</v>
+      </c>
+      <c r="N16">
+        <v>6.58493696</v>
+      </c>
+      <c r="O16">
+        <v>0.5926443264</v>
+      </c>
+      <c r="P16">
+        <v>5.9922926336</v>
+      </c>
+      <c r="Q16">
+        <v>7.4622926336</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.06705539634477588</v>
+      </c>
+      <c r="T16">
+        <v>0.8429111867234413</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.09</v>
+      </c>
+      <c r="W16">
+        <v>0.014742</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>24.93973745073129</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.05974066773844886</v>
+      </c>
+      <c r="C17">
+        <v>105.4015454954877</v>
+      </c>
+      <c r="D17">
+        <v>108.8935454954876</v>
+      </c>
+      <c r="E17">
+        <v>10.112</v>
+      </c>
+      <c r="F17">
+        <v>18.192</v>
+      </c>
+      <c r="G17">
+        <v>14.7</v>
+      </c>
+      <c r="H17">
+        <v>113.2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>8.33</v>
+      </c>
+      <c r="K17">
+        <v>1.47</v>
+      </c>
+      <c r="L17">
+        <v>6.86</v>
+      </c>
+      <c r="M17">
+        <v>0.2947104</v>
+      </c>
+      <c r="N17">
+        <v>6.565289600000001</v>
+      </c>
+      <c r="O17">
+        <v>0.590876064</v>
+      </c>
+      <c r="P17">
+        <v>5.974413536000001</v>
+      </c>
+      <c r="Q17">
+        <v>7.444413536000001</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.06768160910405749</v>
+      </c>
+      <c r="T17">
+        <v>0.8520504494326162</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.09</v>
+      </c>
+      <c r="W17">
+        <v>0.014742</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>23.27708828734921</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.05974981462039047</v>
+      </c>
+      <c r="C18">
+        <v>104.171922134055</v>
+      </c>
+      <c r="D18">
+        <v>108.876722134055</v>
+      </c>
+      <c r="E18">
+        <v>11.3248</v>
+      </c>
+      <c r="F18">
+        <v>19.4048</v>
+      </c>
+      <c r="G18">
+        <v>14.7</v>
+      </c>
+      <c r="H18">
+        <v>113.2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>8.33</v>
+      </c>
+      <c r="K18">
+        <v>1.47</v>
+      </c>
+      <c r="L18">
+        <v>6.86</v>
+      </c>
+      <c r="M18">
+        <v>0.31435776</v>
+      </c>
+      <c r="N18">
+        <v>6.54564224</v>
+      </c>
+      <c r="O18">
+        <v>0.5891078016</v>
+      </c>
+      <c r="P18">
+        <v>5.9565344384</v>
+      </c>
+      <c r="Q18">
+        <v>7.4265344384</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.06832273169094104</v>
+      </c>
+      <c r="T18">
+        <v>0.8614073136348666</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.09</v>
+      </c>
+      <c r="W18">
+        <v>0.014742</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>21.82227026938988</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.05975896150233207</v>
+      </c>
+      <c r="C19">
+        <v>102.9423039700245</v>
+      </c>
+      <c r="D19">
+        <v>108.8599039700245</v>
+      </c>
+      <c r="E19">
+        <v>12.5376</v>
+      </c>
+      <c r="F19">
+        <v>20.6176</v>
+      </c>
+      <c r="G19">
+        <v>14.7</v>
+      </c>
+      <c r="H19">
+        <v>113.2</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>8.33</v>
+      </c>
+      <c r="K19">
+        <v>1.47</v>
+      </c>
+      <c r="L19">
+        <v>6.86</v>
+      </c>
+      <c r="M19">
+        <v>0.33400512</v>
+      </c>
+      <c r="N19">
+        <v>6.525994880000001</v>
+      </c>
+      <c r="O19">
+        <v>0.5873395392</v>
+      </c>
+      <c r="P19">
+        <v>5.9386553408</v>
+      </c>
+      <c r="Q19">
+        <v>7.4086553408</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.06897930301485793</v>
+      </c>
+      <c r="T19">
+        <v>0.8709896444444001</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.09</v>
+      </c>
+      <c r="W19">
+        <v>0.014742</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>20.53860731236695</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.05976810838427369</v>
+      </c>
+      <c r="C20">
+        <v>101.7126910009879</v>
+      </c>
+      <c r="D20">
+        <v>108.8430910009879</v>
+      </c>
+      <c r="E20">
+        <v>13.7504</v>
+      </c>
+      <c r="F20">
+        <v>21.8304</v>
+      </c>
+      <c r="G20">
+        <v>14.7</v>
+      </c>
+      <c r="H20">
+        <v>113.2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>8.33</v>
+      </c>
+      <c r="K20">
+        <v>1.47</v>
+      </c>
+      <c r="L20">
+        <v>6.86</v>
+      </c>
+      <c r="M20">
+        <v>0.35365248</v>
+      </c>
+      <c r="N20">
+        <v>6.50634752</v>
+      </c>
+      <c r="O20">
+        <v>0.5855712768</v>
+      </c>
+      <c r="P20">
+        <v>5.920776243200001</v>
+      </c>
+      <c r="Q20">
+        <v>7.3907762432</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.06965188827350449</v>
+      </c>
+      <c r="T20">
+        <v>0.880805690639532</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.09</v>
+      </c>
+      <c r="W20">
+        <v>0.014742</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>19.39757357279101</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.0597772552662153</v>
+      </c>
+      <c r="C21">
+        <v>100.4830832245385</v>
+      </c>
+      <c r="D21">
+        <v>108.8262832245385</v>
+      </c>
+      <c r="E21">
+        <v>14.9632</v>
+      </c>
+      <c r="F21">
+        <v>23.0432</v>
+      </c>
+      <c r="G21">
+        <v>14.7</v>
+      </c>
+      <c r="H21">
+        <v>113.2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>8.33</v>
+      </c>
+      <c r="K21">
+        <v>1.47</v>
+      </c>
+      <c r="L21">
+        <v>6.86</v>
+      </c>
+      <c r="M21">
+        <v>0.3732998399999999</v>
+      </c>
+      <c r="N21">
+        <v>6.486700160000001</v>
+      </c>
+      <c r="O21">
+        <v>0.5838030144</v>
+      </c>
+      <c r="P21">
+        <v>5.902897145600001</v>
+      </c>
+      <c r="Q21">
+        <v>7.372897145600001</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.07034108057557444</v>
+      </c>
+      <c r="T21">
+        <v>0.8908641083456548</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.09</v>
+      </c>
+      <c r="W21">
+        <v>0.014742</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>18.37664864790727</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.05978640214815691</v>
+      </c>
+      <c r="C22">
+        <v>99.25348063827134</v>
+      </c>
+      <c r="D22">
+        <v>108.8094806382713</v>
+      </c>
+      <c r="E22">
+        <v>16.176</v>
+      </c>
+      <c r="F22">
+        <v>24.256</v>
+      </c>
+      <c r="G22">
+        <v>14.7</v>
+      </c>
+      <c r="H22">
+        <v>113.2</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>8.33</v>
+      </c>
+      <c r="K22">
+        <v>1.47</v>
+      </c>
+      <c r="L22">
+        <v>6.86</v>
+      </c>
+      <c r="M22">
+        <v>0.3929472</v>
+      </c>
+      <c r="N22">
+        <v>6.4670528</v>
+      </c>
+      <c r="O22">
+        <v>0.582034752</v>
+      </c>
+      <c r="P22">
+        <v>5.885018048</v>
+      </c>
+      <c r="Q22">
+        <v>7.355018048</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.07104750268519613</v>
+      </c>
+      <c r="T22">
+        <v>0.9011739864944308</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.09</v>
+      </c>
+      <c r="W22">
+        <v>0.014742</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>17.45781621551191</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.05979554903009852</v>
+      </c>
+      <c r="C23">
+        <v>98.02388323978253</v>
+      </c>
+      <c r="D23">
+        <v>108.7926832397825</v>
+      </c>
+      <c r="E23">
+        <v>17.3888</v>
+      </c>
+      <c r="F23">
+        <v>25.4688</v>
+      </c>
+      <c r="G23">
+        <v>14.7</v>
+      </c>
+      <c r="H23">
+        <v>113.2</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>8.33</v>
+      </c>
+      <c r="K23">
+        <v>1.47</v>
+      </c>
+      <c r="L23">
+        <v>6.86</v>
+      </c>
+      <c r="M23">
+        <v>0.4125945599999999</v>
+      </c>
+      <c r="N23">
+        <v>6.447405440000001</v>
+      </c>
+      <c r="O23">
+        <v>0.5802664896</v>
+      </c>
+      <c r="P23">
+        <v>5.867138950400001</v>
+      </c>
+      <c r="Q23">
+        <v>7.337138950400001</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.07177180889885888</v>
+      </c>
+      <c r="T23">
+        <v>0.9117448742165933</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.09</v>
+      </c>
+      <c r="W23">
+        <v>0.014742</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>16.62649163382087</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.05980469591204012</v>
+      </c>
+      <c r="C24">
+        <v>96.79429102666995</v>
+      </c>
+      <c r="D24">
+        <v>108.77589102667</v>
+      </c>
+      <c r="E24">
+        <v>18.6016</v>
+      </c>
+      <c r="F24">
+        <v>26.6816</v>
+      </c>
+      <c r="G24">
+        <v>14.7</v>
+      </c>
+      <c r="H24">
+        <v>113.2</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>8.33</v>
+      </c>
+      <c r="K24">
+        <v>1.47</v>
+      </c>
+      <c r="L24">
+        <v>6.86</v>
+      </c>
+      <c r="M24">
+        <v>0.4322419199999999</v>
+      </c>
+      <c r="N24">
+        <v>6.42775808</v>
+      </c>
+      <c r="O24">
+        <v>0.5784982272</v>
+      </c>
+      <c r="P24">
+        <v>5.8492598528</v>
+      </c>
+      <c r="Q24">
+        <v>7.3192598528</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.0725146870667181</v>
+      </c>
+      <c r="T24">
+        <v>0.9225868103418883</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.09</v>
+      </c>
+      <c r="W24">
+        <v>0.014742</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>15.87074201410173</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.05981384279398173</v>
+      </c>
+      <c r="C25">
+        <v>95.56470399653283</v>
+      </c>
+      <c r="D25">
+        <v>108.7591039965328</v>
+      </c>
+      <c r="E25">
+        <v>19.8144</v>
+      </c>
+      <c r="F25">
+        <v>27.8944</v>
+      </c>
+      <c r="G25">
+        <v>14.7</v>
+      </c>
+      <c r="H25">
+        <v>113.2</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>8.33</v>
+      </c>
+      <c r="K25">
+        <v>1.47</v>
+      </c>
+      <c r="L25">
+        <v>6.86</v>
+      </c>
+      <c r="M25">
+        <v>0.45188928</v>
+      </c>
+      <c r="N25">
+        <v>6.408110720000001</v>
+      </c>
+      <c r="O25">
+        <v>0.5767299648000001</v>
+      </c>
+      <c r="P25">
+        <v>5.831380755200001</v>
+      </c>
+      <c r="Q25">
+        <v>7.3013807552</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.07327686077140484</v>
+      </c>
+      <c r="T25">
+        <v>0.9337103551977104</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.09</v>
+      </c>
+      <c r="W25">
+        <v>0.014742</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>15.18070975261905</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.05982298967592334</v>
+      </c>
+      <c r="C26">
+        <v>94.33512214697194</v>
+      </c>
+      <c r="D26">
+        <v>108.7423221469719</v>
+      </c>
+      <c r="E26">
+        <v>21.0272</v>
+      </c>
+      <c r="F26">
+        <v>29.1072</v>
+      </c>
+      <c r="G26">
+        <v>14.7</v>
+      </c>
+      <c r="H26">
+        <v>113.2</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>8.33</v>
+      </c>
+      <c r="K26">
+        <v>1.47</v>
+      </c>
+      <c r="L26">
+        <v>6.86</v>
+      </c>
+      <c r="M26">
+        <v>0.47153664</v>
+      </c>
+      <c r="N26">
+        <v>6.38846336</v>
+      </c>
+      <c r="O26">
+        <v>0.5749617024</v>
+      </c>
+      <c r="P26">
+        <v>5.8135016576</v>
+      </c>
+      <c r="Q26">
+        <v>7.2835016576</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.0740590916788465</v>
+      </c>
+      <c r="T26">
+        <v>0.9451266249181595</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.09</v>
+      </c>
+      <c r="W26">
+        <v>0.014742</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>14.54818017959326</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.05983213655786494</v>
+      </c>
+      <c r="C27">
+        <v>93.10554547558951</v>
+      </c>
+      <c r="D27">
+        <v>108.7255454755895</v>
+      </c>
+      <c r="E27">
+        <v>22.24</v>
+      </c>
+      <c r="F27">
+        <v>30.32</v>
+      </c>
+      <c r="G27">
+        <v>14.7</v>
+      </c>
+      <c r="H27">
+        <v>113.2</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>8.33</v>
+      </c>
+      <c r="K27">
+        <v>1.47</v>
+      </c>
+      <c r="L27">
+        <v>6.86</v>
+      </c>
+      <c r="M27">
+        <v>0.491184</v>
+      </c>
+      <c r="N27">
+        <v>6.368816000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.5731934400000001</v>
+      </c>
+      <c r="P27">
+        <v>5.795622560000001</v>
+      </c>
+      <c r="Q27">
+        <v>7.265622560000001</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.07486218207715326</v>
+      </c>
+      <c r="T27">
+        <v>0.9568473284978205</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.09</v>
+      </c>
+      <c r="W27">
+        <v>0.014742</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>13.96625297240953</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.06021984343980656</v>
+      </c>
+      <c r="C28">
+        <v>91.1863653876861</v>
+      </c>
+      <c r="D28">
+        <v>108.0191653876861</v>
+      </c>
+      <c r="E28">
+        <v>23.4528</v>
+      </c>
+      <c r="F28">
+        <v>31.5328</v>
+      </c>
+      <c r="G28">
+        <v>14.7</v>
+      </c>
+      <c r="H28">
+        <v>113.2</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>8.33</v>
+      </c>
+      <c r="K28">
+        <v>1.47</v>
+      </c>
+      <c r="L28">
+        <v>6.86</v>
+      </c>
+      <c r="M28">
+        <v>0.56128384</v>
+      </c>
+      <c r="N28">
+        <v>6.298716160000001</v>
+      </c>
+      <c r="O28">
+        <v>0.5668844544</v>
+      </c>
+      <c r="P28">
+        <v>5.7318317056</v>
+      </c>
+      <c r="Q28">
+        <v>7.2018317056</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.07568697762136022</v>
+      </c>
+      <c r="T28">
+        <v>0.9688848078499048</v>
+      </c>
+      <c r="U28">
+        <v>0.0178</v>
+      </c>
+      <c r="V28">
+        <v>0.09</v>
+      </c>
+      <c r="W28">
+        <v>0.016198</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>12.22198023730739</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.06024355032174816</v>
+      </c>
+      <c r="C29">
+        <v>89.9306704439137</v>
+      </c>
+      <c r="D29">
+        <v>107.9762704439137</v>
+      </c>
+      <c r="E29">
+        <v>24.6656</v>
+      </c>
+      <c r="F29">
+        <v>32.7456</v>
+      </c>
+      <c r="G29">
+        <v>14.7</v>
+      </c>
+      <c r="H29">
+        <v>113.2</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>8.33</v>
+      </c>
+      <c r="K29">
+        <v>1.47</v>
+      </c>
+      <c r="L29">
+        <v>6.86</v>
+      </c>
+      <c r="M29">
+        <v>0.58287168</v>
+      </c>
+      <c r="N29">
+        <v>6.27712832</v>
+      </c>
+      <c r="O29">
+        <v>0.5649415488</v>
+      </c>
+      <c r="P29">
+        <v>5.7121867712</v>
+      </c>
+      <c r="Q29">
+        <v>7.1821867712</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.0765343703037646</v>
+      </c>
+      <c r="T29">
+        <v>0.9812520811568407</v>
+      </c>
+      <c r="U29">
+        <v>0.0178</v>
+      </c>
+      <c r="V29">
+        <v>0.09</v>
+      </c>
+      <c r="W29">
+        <v>0.016198</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>11.7693143025923</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.06026725720368978</v>
+      </c>
+      <c r="C30">
+        <v>88.67500955420604</v>
+      </c>
+      <c r="D30">
+        <v>107.9334095542061</v>
+      </c>
+      <c r="E30">
+        <v>25.87840000000001</v>
+      </c>
+      <c r="F30">
+        <v>33.9584</v>
+      </c>
+      <c r="G30">
+        <v>14.7</v>
+      </c>
+      <c r="H30">
+        <v>113.2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>8.33</v>
+      </c>
+      <c r="K30">
+        <v>1.47</v>
+      </c>
+      <c r="L30">
+        <v>6.86</v>
+      </c>
+      <c r="M30">
+        <v>0.60445952</v>
+      </c>
+      <c r="N30">
+        <v>6.255540480000001</v>
+      </c>
+      <c r="O30">
+        <v>0.5629986432</v>
+      </c>
+      <c r="P30">
+        <v>5.6925418368</v>
+      </c>
+      <c r="Q30">
+        <v>7.1625418368</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.07740530167179135</v>
+      </c>
+      <c r="T30">
+        <v>0.9939628898334137</v>
+      </c>
+      <c r="U30">
+        <v>0.0178</v>
+      </c>
+      <c r="V30">
+        <v>0.09</v>
+      </c>
+      <c r="W30">
+        <v>0.016198</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>11.34898164892829</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.06029096408563137</v>
+      </c>
+      <c r="C31">
+        <v>87.41938267802632</v>
+      </c>
+      <c r="D31">
+        <v>107.8905826780263</v>
+      </c>
+      <c r="E31">
+        <v>27.0912</v>
+      </c>
+      <c r="F31">
+        <v>35.1712</v>
+      </c>
+      <c r="G31">
+        <v>14.7</v>
+      </c>
+      <c r="H31">
+        <v>113.2</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>8.33</v>
+      </c>
+      <c r="K31">
+        <v>1.47</v>
+      </c>
+      <c r="L31">
+        <v>6.86</v>
+      </c>
+      <c r="M31">
+        <v>0.6260473599999999</v>
+      </c>
+      <c r="N31">
+        <v>6.23395264</v>
+      </c>
+      <c r="O31">
+        <v>0.5610557375999999</v>
+      </c>
+      <c r="P31">
+        <v>5.6728969024</v>
+      </c>
+      <c r="Q31">
+        <v>7.1428969024</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.07830076631779066</v>
+      </c>
+      <c r="T31">
+        <v>1.007031749458623</v>
+      </c>
+      <c r="U31">
+        <v>0.0178</v>
+      </c>
+      <c r="V31">
+        <v>0.09</v>
+      </c>
+      <c r="W31">
+        <v>0.016198</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>10.95763745413766</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.06091527096757299</v>
+      </c>
+      <c r="C32">
+        <v>85.09086778783981</v>
+      </c>
+      <c r="D32">
+        <v>106.7748677878398</v>
+      </c>
+      <c r="E32">
+        <v>28.304</v>
+      </c>
+      <c r="F32">
+        <v>36.384</v>
+      </c>
+      <c r="G32">
+        <v>14.7</v>
+      </c>
+      <c r="H32">
+        <v>113.2</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>8.33</v>
+      </c>
+      <c r="K32">
+        <v>1.47</v>
+      </c>
+      <c r="L32">
+        <v>6.86</v>
+      </c>
+      <c r="M32">
+        <v>0.7276799999999999</v>
+      </c>
+      <c r="N32">
+        <v>6.13232</v>
+      </c>
+      <c r="O32">
+        <v>0.5519088</v>
+      </c>
+      <c r="P32">
+        <v>5.5804112</v>
+      </c>
+      <c r="Q32">
+        <v>7.0504112</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.07922181566796142</v>
+      </c>
+      <c r="T32">
+        <v>1.020474005073123</v>
+      </c>
+      <c r="U32">
+        <v>0.02</v>
+      </c>
+      <c r="V32">
+        <v>0.09</v>
+      </c>
+      <c r="W32">
+        <v>0.0182</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>9.42722075637643</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.06095899784951459</v>
+      </c>
+      <c r="C33">
+        <v>83.8007864425086</v>
+      </c>
+      <c r="D33">
+        <v>106.6975864425086</v>
+      </c>
+      <c r="E33">
+        <v>29.5168</v>
+      </c>
+      <c r="F33">
+        <v>37.5968</v>
+      </c>
+      <c r="G33">
+        <v>14.7</v>
+      </c>
+      <c r="H33">
+        <v>113.2</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>8.33</v>
+      </c>
+      <c r="K33">
+        <v>1.47</v>
+      </c>
+      <c r="L33">
+        <v>6.86</v>
+      </c>
+      <c r="M33">
+        <v>0.7519359999999999</v>
+      </c>
+      <c r="N33">
+        <v>6.108064000000001</v>
+      </c>
+      <c r="O33">
+        <v>0.5497257600000001</v>
+      </c>
+      <c r="P33">
+        <v>5.55833824</v>
+      </c>
+      <c r="Q33">
+        <v>7.02833824</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.08016956210074579</v>
+      </c>
+      <c r="T33">
+        <v>1.034305891285145</v>
+      </c>
+      <c r="U33">
+        <v>0.02</v>
+      </c>
+      <c r="V33">
+        <v>0.09</v>
+      </c>
+      <c r="W33">
+        <v>0.0182</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>9.12311686100945</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.06100272473145621</v>
+      </c>
+      <c r="C34">
+        <v>82.51081688540783</v>
+      </c>
+      <c r="D34">
+        <v>106.6204168854078</v>
+      </c>
+      <c r="E34">
+        <v>30.7296</v>
+      </c>
+      <c r="F34">
+        <v>38.8096</v>
+      </c>
+      <c r="G34">
+        <v>14.7</v>
+      </c>
+      <c r="H34">
+        <v>113.2</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>8.33</v>
+      </c>
+      <c r="K34">
+        <v>1.47</v>
+      </c>
+      <c r="L34">
+        <v>6.86</v>
+      </c>
+      <c r="M34">
+        <v>0.776192</v>
+      </c>
+      <c r="N34">
+        <v>6.083808</v>
+      </c>
+      <c r="O34">
+        <v>0.54754272</v>
+      </c>
+      <c r="P34">
+        <v>5.53626528</v>
+      </c>
+      <c r="Q34">
+        <v>7.00626528</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.08114518342861207</v>
+      </c>
+      <c r="T34">
+        <v>1.048544597679874</v>
+      </c>
+      <c r="U34">
+        <v>0.02</v>
+      </c>
+      <c r="V34">
+        <v>0.09</v>
+      </c>
+      <c r="W34">
+        <v>0.0182</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>8.838019459102902</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.0610464516133978</v>
+      </c>
+      <c r="C35">
+        <v>81.22095887415868</v>
+      </c>
+      <c r="D35">
+        <v>106.5433588741587</v>
+      </c>
+      <c r="E35">
+        <v>31.94240000000001</v>
+      </c>
+      <c r="F35">
+        <v>40.0224</v>
+      </c>
+      <c r="G35">
+        <v>14.7</v>
+      </c>
+      <c r="H35">
+        <v>113.2</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>8.33</v>
+      </c>
+      <c r="K35">
+        <v>1.47</v>
+      </c>
+      <c r="L35">
+        <v>6.86</v>
+      </c>
+      <c r="M35">
+        <v>0.8004479999999999</v>
+      </c>
+      <c r="N35">
+        <v>6.059552</v>
+      </c>
+      <c r="O35">
+        <v>0.54535968</v>
+      </c>
+      <c r="P35">
+        <v>5.51419232</v>
+      </c>
+      <c r="Q35">
+        <v>6.98419232</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.08214992778119076</v>
+      </c>
+      <c r="T35">
+        <v>1.063208340086386</v>
+      </c>
+      <c r="U35">
+        <v>0.02</v>
+      </c>
+      <c r="V35">
+        <v>0.09</v>
+      </c>
+      <c r="W35">
+        <v>0.0182</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>8.570200687614935</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.06109017849533942</v>
+      </c>
+      <c r="C36">
+        <v>79.93121216708241</v>
+      </c>
+      <c r="D36">
+        <v>106.4664121670824</v>
+      </c>
+      <c r="E36">
+        <v>33.15520000000001</v>
+      </c>
+      <c r="F36">
+        <v>41.23520000000001</v>
+      </c>
+      <c r="G36">
+        <v>14.7</v>
+      </c>
+      <c r="H36">
+        <v>113.2</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>8.33</v>
+      </c>
+      <c r="K36">
+        <v>1.47</v>
+      </c>
+      <c r="L36">
+        <v>6.86</v>
+      </c>
+      <c r="M36">
+        <v>0.824704</v>
+      </c>
+      <c r="N36">
+        <v>6.035296000000001</v>
+      </c>
+      <c r="O36">
+        <v>0.54317664</v>
+      </c>
+      <c r="P36">
+        <v>5.49211936</v>
+      </c>
+      <c r="Q36">
+        <v>6.96211936</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.08318511893233246</v>
+      </c>
+      <c r="T36">
+        <v>1.078316438323399</v>
+      </c>
+      <c r="U36">
+        <v>0.02</v>
+      </c>
+      <c r="V36">
+        <v>0.09</v>
+      </c>
+      <c r="W36">
+        <v>0.0182</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>8.318135961508615</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.06113390537728102</v>
+      </c>
+      <c r="C37">
+        <v>78.64157652319807</v>
+      </c>
+      <c r="D37">
+        <v>106.3895765231981</v>
+      </c>
+      <c r="E37">
+        <v>34.36800000000001</v>
+      </c>
+      <c r="F37">
+        <v>42.44800000000001</v>
+      </c>
+      <c r="G37">
+        <v>14.7</v>
+      </c>
+      <c r="H37">
+        <v>113.2</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>8.33</v>
+      </c>
+      <c r="K37">
+        <v>1.47</v>
+      </c>
+      <c r="L37">
+        <v>6.86</v>
+      </c>
+      <c r="M37">
+        <v>0.84896</v>
+      </c>
+      <c r="N37">
+        <v>6.01104</v>
+      </c>
+      <c r="O37">
+        <v>0.5409936</v>
+      </c>
+      <c r="P37">
+        <v>5.4700464</v>
+      </c>
+      <c r="Q37">
+        <v>6.9400464</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.08425216211889389</v>
+      </c>
+      <c r="T37">
+        <v>1.093889401121549</v>
+      </c>
+      <c r="U37">
+        <v>0.02</v>
+      </c>
+      <c r="V37">
+        <v>0.09</v>
+      </c>
+      <c r="W37">
+        <v>0.0182</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>8.080474934036939</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.06153799225922262</v>
+      </c>
+      <c r="C38">
+        <v>76.72393961119894</v>
+      </c>
+      <c r="D38">
+        <v>105.6847396111989</v>
+      </c>
+      <c r="E38">
+        <v>35.5808</v>
+      </c>
+      <c r="F38">
+        <v>43.6608</v>
+      </c>
+      <c r="G38">
+        <v>14.7</v>
+      </c>
+      <c r="H38">
+        <v>113.2</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>8.33</v>
+      </c>
+      <c r="K38">
+        <v>1.47</v>
+      </c>
+      <c r="L38">
+        <v>6.86</v>
+      </c>
+      <c r="M38">
+        <v>0.9212428800000001</v>
+      </c>
+      <c r="N38">
+        <v>5.93875712</v>
+      </c>
+      <c r="O38">
+        <v>0.5344881408</v>
+      </c>
+      <c r="P38">
+        <v>5.4042689792</v>
+      </c>
+      <c r="Q38">
+        <v>6.8742689792</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.08535255040503535</v>
+      </c>
+      <c r="T38">
+        <v>1.109949019007142</v>
+      </c>
+      <c r="U38">
+        <v>0.0211</v>
+      </c>
+      <c r="V38">
+        <v>0.09</v>
+      </c>
+      <c r="W38">
+        <v>0.019201</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>7.446461892872376</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.06159172914116424</v>
+      </c>
+      <c r="C39">
+        <v>75.4181108800656</v>
+      </c>
+      <c r="D39">
+        <v>105.5917108800656</v>
+      </c>
+      <c r="E39">
+        <v>36.7936</v>
+      </c>
+      <c r="F39">
+        <v>44.8736</v>
+      </c>
+      <c r="G39">
+        <v>14.7</v>
+      </c>
+      <c r="H39">
+        <v>113.2</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>8.33</v>
+      </c>
+      <c r="K39">
+        <v>1.47</v>
+      </c>
+      <c r="L39">
+        <v>6.86</v>
+      </c>
+      <c r="M39">
+        <v>0.9468329600000001</v>
+      </c>
+      <c r="N39">
+        <v>5.91316704</v>
+      </c>
+      <c r="O39">
+        <v>0.5321850336</v>
+      </c>
+      <c r="P39">
+        <v>5.3809820064</v>
+      </c>
+      <c r="Q39">
+        <v>6.8509820064</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.08648787165264166</v>
+      </c>
+      <c r="T39">
+        <v>1.126518466031961</v>
+      </c>
+      <c r="U39">
+        <v>0.0211</v>
+      </c>
+      <c r="V39">
+        <v>0.09</v>
+      </c>
+      <c r="W39">
+        <v>0.019201</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>7.245206166037988</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.06164546602310584</v>
+      </c>
+      <c r="C40">
+        <v>74.11244578151698</v>
+      </c>
+      <c r="D40">
+        <v>105.498845781517</v>
+      </c>
+      <c r="E40">
+        <v>38.0064</v>
+      </c>
+      <c r="F40">
+        <v>46.0864</v>
+      </c>
+      <c r="G40">
+        <v>14.7</v>
+      </c>
+      <c r="H40">
+        <v>113.2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>8.33</v>
+      </c>
+      <c r="K40">
+        <v>1.47</v>
+      </c>
+      <c r="L40">
+        <v>6.86</v>
+      </c>
+      <c r="M40">
+        <v>0.97242304</v>
+      </c>
+      <c r="N40">
+        <v>5.887576960000001</v>
+      </c>
+      <c r="O40">
+        <v>0.5298819264</v>
+      </c>
+      <c r="P40">
+        <v>5.357695033600001</v>
+      </c>
+      <c r="Q40">
+        <v>6.8276950336</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.08765981616629974</v>
+      </c>
+      <c r="T40">
+        <v>1.143622411347902</v>
+      </c>
+      <c r="U40">
+        <v>0.0211</v>
+      </c>
+      <c r="V40">
+        <v>0.09</v>
+      </c>
+      <c r="W40">
+        <v>0.019201</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>7.054542845879094</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.06169920290504746</v>
+      </c>
+      <c r="C41">
+        <v>72.80694388420082</v>
+      </c>
+      <c r="D41">
+        <v>105.4061438842008</v>
+      </c>
+      <c r="E41">
+        <v>39.2192</v>
+      </c>
+      <c r="F41">
+        <v>47.2992</v>
+      </c>
+      <c r="G41">
+        <v>14.7</v>
+      </c>
+      <c r="H41">
+        <v>113.2</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>8.33</v>
+      </c>
+      <c r="K41">
+        <v>1.47</v>
+      </c>
+      <c r="L41">
+        <v>6.86</v>
+      </c>
+      <c r="M41">
+        <v>0.99801312</v>
+      </c>
+      <c r="N41">
+        <v>5.86198688</v>
+      </c>
+      <c r="O41">
+        <v>0.5275788191999999</v>
+      </c>
+      <c r="P41">
+        <v>5.3344080608</v>
+      </c>
+      <c r="Q41">
+        <v>6.804408060799999</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.08887018509024174</v>
+      </c>
+      <c r="T41">
+        <v>1.16128714175617</v>
+      </c>
+      <c r="U41">
+        <v>0.0211</v>
+      </c>
+      <c r="V41">
+        <v>0.09</v>
+      </c>
+      <c r="W41">
+        <v>0.019201</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>6.873657131882194</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.06175293978698907</v>
+      </c>
+      <c r="C42">
+        <v>71.50160475827983</v>
+      </c>
+      <c r="D42">
+        <v>105.3136047582798</v>
+      </c>
+      <c r="E42">
+        <v>40.432</v>
+      </c>
+      <c r="F42">
+        <v>48.512</v>
+      </c>
+      <c r="G42">
+        <v>14.7</v>
+      </c>
+      <c r="H42">
+        <v>113.2</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>8.33</v>
+      </c>
+      <c r="K42">
+        <v>1.47</v>
+      </c>
+      <c r="L42">
+        <v>6.86</v>
+      </c>
+      <c r="M42">
+        <v>1.0236032</v>
+      </c>
+      <c r="N42">
+        <v>5.8363968</v>
+      </c>
+      <c r="O42">
+        <v>0.525275712</v>
+      </c>
+      <c r="P42">
+        <v>5.311121088</v>
+      </c>
+      <c r="Q42">
+        <v>6.781121088</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.09012089964498178</v>
+      </c>
+      <c r="T42">
+        <v>1.17954069651138</v>
+      </c>
+      <c r="U42">
+        <v>0.0211</v>
+      </c>
+      <c r="V42">
+        <v>0.09</v>
+      </c>
+      <c r="W42">
+        <v>0.019201</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>6.701815703585139</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.06180667666893068</v>
+      </c>
+      <c r="C43">
+        <v>70.19642797542477</v>
+      </c>
+      <c r="D43">
+        <v>105.2212279754248</v>
+      </c>
+      <c r="E43">
+        <v>41.6448</v>
+      </c>
+      <c r="F43">
+        <v>49.7248</v>
+      </c>
+      <c r="G43">
+        <v>14.7</v>
+      </c>
+      <c r="H43">
+        <v>113.2</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>8.33</v>
+      </c>
+      <c r="K43">
+        <v>1.47</v>
+      </c>
+      <c r="L43">
+        <v>6.86</v>
+      </c>
+      <c r="M43">
+        <v>1.04919328</v>
+      </c>
+      <c r="N43">
+        <v>5.81080672</v>
+      </c>
+      <c r="O43">
+        <v>0.5229726048000001</v>
+      </c>
+      <c r="P43">
+        <v>5.287834115200001</v>
+      </c>
+      <c r="Q43">
+        <v>6.757834115200001</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.09141401130327234</v>
+      </c>
+      <c r="T43">
+        <v>1.198413015834563</v>
+      </c>
+      <c r="U43">
+        <v>0.0211</v>
+      </c>
+      <c r="V43">
+        <v>0.09</v>
+      </c>
+      <c r="W43">
+        <v>0.019201</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>6.538356783985502</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.06243371355087228</v>
+      </c>
+      <c r="C44">
+        <v>67.91757246173464</v>
+      </c>
+      <c r="D44">
+        <v>104.1551724617346</v>
+      </c>
+      <c r="E44">
+        <v>42.8576</v>
+      </c>
+      <c r="F44">
+        <v>50.9376</v>
+      </c>
+      <c r="G44">
+        <v>14.7</v>
+      </c>
+      <c r="H44">
+        <v>113.2</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>8.33</v>
+      </c>
+      <c r="K44">
+        <v>1.47</v>
+      </c>
+      <c r="L44">
+        <v>6.86</v>
+      </c>
+      <c r="M44">
+        <v>1.15118976</v>
+      </c>
+      <c r="N44">
+        <v>5.70881024</v>
+      </c>
+      <c r="O44">
+        <v>0.5137929216</v>
+      </c>
+      <c r="P44">
+        <v>5.1950173184</v>
+      </c>
+      <c r="Q44">
+        <v>6.665017318399999</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.0927517130187453</v>
+      </c>
+      <c r="T44">
+        <v>1.21793610478958</v>
+      </c>
+      <c r="U44">
+        <v>0.0226</v>
+      </c>
+      <c r="V44">
+        <v>0.09</v>
+      </c>
+      <c r="W44">
+        <v>0.020566</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>5.959052311236682</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.06250110043281389</v>
+      </c>
+      <c r="C45">
+        <v>66.59148888358223</v>
+      </c>
+      <c r="D45">
+        <v>104.0418888835822</v>
+      </c>
+      <c r="E45">
+        <v>44.0704</v>
+      </c>
+      <c r="F45">
+        <v>52.1504</v>
+      </c>
+      <c r="G45">
+        <v>14.7</v>
+      </c>
+      <c r="H45">
+        <v>113.2</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>8.33</v>
+      </c>
+      <c r="K45">
+        <v>1.47</v>
+      </c>
+      <c r="L45">
+        <v>6.86</v>
+      </c>
+      <c r="M45">
+        <v>1.17859904</v>
+      </c>
+      <c r="N45">
+        <v>5.68140096</v>
+      </c>
+      <c r="O45">
+        <v>0.5113260864</v>
+      </c>
+      <c r="P45">
+        <v>5.170074873600001</v>
+      </c>
+      <c r="Q45">
+        <v>6.640074873600001</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.09413635163651558</v>
+      </c>
+      <c r="T45">
+        <v>1.238144214409685</v>
+      </c>
+      <c r="U45">
+        <v>0.0226</v>
+      </c>
+      <c r="V45">
+        <v>0.09</v>
+      </c>
+      <c r="W45">
+        <v>0.020566</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>5.820469699347457</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.06256848731475551</v>
+      </c>
+      <c r="C46">
+        <v>65.2656514617376</v>
+      </c>
+      <c r="D46">
+        <v>103.9288514617376</v>
+      </c>
+      <c r="E46">
+        <v>45.2832</v>
+      </c>
+      <c r="F46">
+        <v>53.3632</v>
+      </c>
+      <c r="G46">
+        <v>14.7</v>
+      </c>
+      <c r="H46">
+        <v>113.2</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>8.33</v>
+      </c>
+      <c r="K46">
+        <v>1.47</v>
+      </c>
+      <c r="L46">
+        <v>6.86</v>
+      </c>
+      <c r="M46">
+        <v>1.20600832</v>
+      </c>
+      <c r="N46">
+        <v>5.653991680000001</v>
+      </c>
+      <c r="O46">
+        <v>0.5088592512000001</v>
+      </c>
+      <c r="P46">
+        <v>5.1451324288</v>
+      </c>
+      <c r="Q46">
+        <v>6.6151324288</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.09557044163349195</v>
+      </c>
+      <c r="T46">
+        <v>1.259074042230508</v>
+      </c>
+      <c r="U46">
+        <v>0.0226</v>
+      </c>
+      <c r="V46">
+        <v>0.09</v>
+      </c>
+      <c r="W46">
+        <v>0.020566</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>5.68818629708956</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.06263587419669711</v>
+      </c>
+      <c r="C47">
+        <v>63.94005939475408</v>
+      </c>
+      <c r="D47">
+        <v>103.8160593947541</v>
+      </c>
+      <c r="E47">
+        <v>46.496</v>
+      </c>
+      <c r="F47">
+        <v>54.576</v>
+      </c>
+      <c r="G47">
+        <v>14.7</v>
+      </c>
+      <c r="H47">
+        <v>113.2</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>8.33</v>
+      </c>
+      <c r="K47">
+        <v>1.47</v>
+      </c>
+      <c r="L47">
+        <v>6.86</v>
+      </c>
+      <c r="M47">
+        <v>1.2334176</v>
+      </c>
+      <c r="N47">
+        <v>5.6265824</v>
+      </c>
+      <c r="O47">
+        <v>0.506392416</v>
+      </c>
+      <c r="P47">
+        <v>5.120189984</v>
+      </c>
+      <c r="Q47">
+        <v>6.590189984</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.0970566803576311</v>
+      </c>
+      <c r="T47">
+        <v>1.280764954699361</v>
+      </c>
+      <c r="U47">
+        <v>0.0226</v>
+      </c>
+      <c r="V47">
+        <v>0.09</v>
+      </c>
+      <c r="W47">
+        <v>0.020566</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>5.561782157154236</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.06270326107863872</v>
+      </c>
+      <c r="C48">
+        <v>62.61471188466034</v>
+      </c>
+      <c r="D48">
+        <v>103.7035118846603</v>
+      </c>
+      <c r="E48">
+        <v>47.7088</v>
+      </c>
+      <c r="F48">
+        <v>55.7888</v>
+      </c>
+      <c r="G48">
+        <v>14.7</v>
+      </c>
+      <c r="H48">
+        <v>113.2</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>8.33</v>
+      </c>
+      <c r="K48">
+        <v>1.47</v>
+      </c>
+      <c r="L48">
+        <v>6.86</v>
+      </c>
+      <c r="M48">
+        <v>1.26082688</v>
+      </c>
+      <c r="N48">
+        <v>5.599173120000001</v>
+      </c>
+      <c r="O48">
+        <v>0.5039255808000001</v>
+      </c>
+      <c r="P48">
+        <v>5.095247539200001</v>
+      </c>
+      <c r="Q48">
+        <v>6.5652475392</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.09859796496044206</v>
+      </c>
+      <c r="T48">
+        <v>1.30325923429669</v>
+      </c>
+      <c r="U48">
+        <v>0.0226</v>
+      </c>
+      <c r="V48">
+        <v>0.09</v>
+      </c>
+      <c r="W48">
+        <v>0.020566</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>5.440873849390013</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.06277064796058034</v>
+      </c>
+      <c r="C49">
+        <v>61.28960813694165</v>
+      </c>
+      <c r="D49">
+        <v>103.5912081369416</v>
+      </c>
+      <c r="E49">
+        <v>48.92160000000001</v>
+      </c>
+      <c r="F49">
+        <v>57.0016</v>
+      </c>
+      <c r="G49">
+        <v>14.7</v>
+      </c>
+      <c r="H49">
+        <v>113.2</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>8.33</v>
+      </c>
+      <c r="K49">
+        <v>1.47</v>
+      </c>
+      <c r="L49">
+        <v>6.86</v>
+      </c>
+      <c r="M49">
+        <v>1.28823616</v>
+      </c>
+      <c r="N49">
+        <v>5.57176384</v>
+      </c>
+      <c r="O49">
+        <v>0.5014587456</v>
+      </c>
+      <c r="P49">
+        <v>5.0703050944</v>
+      </c>
+      <c r="Q49">
+        <v>6.5403050944</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.100197411246378</v>
+      </c>
+      <c r="T49">
+        <v>1.326602354633542</v>
+      </c>
+      <c r="U49">
+        <v>0.0226</v>
+      </c>
+      <c r="V49">
+        <v>0.09</v>
+      </c>
+      <c r="W49">
+        <v>0.020566</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>5.325110575998736</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.06283803484252193</v>
+      </c>
+      <c r="C50">
+        <v>59.96474736052124</v>
+      </c>
+      <c r="D50">
+        <v>103.4791473605212</v>
+      </c>
+      <c r="E50">
+        <v>50.1344</v>
+      </c>
+      <c r="F50">
+        <v>58.2144</v>
+      </c>
+      <c r="G50">
+        <v>14.7</v>
+      </c>
+      <c r="H50">
+        <v>113.2</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>8.33</v>
+      </c>
+      <c r="K50">
+        <v>1.47</v>
+      </c>
+      <c r="L50">
+        <v>6.86</v>
+      </c>
+      <c r="M50">
+        <v>1.31564544</v>
+      </c>
+      <c r="N50">
+        <v>5.54435456</v>
+      </c>
+      <c r="O50">
+        <v>0.4989919104</v>
+      </c>
+      <c r="P50">
+        <v>5.0453626496</v>
+      </c>
+      <c r="Q50">
+        <v>6.5153626496</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1018583746971575</v>
+      </c>
+      <c r="T50">
+        <v>1.350843287291041</v>
+      </c>
+      <c r="U50">
+        <v>0.0226</v>
+      </c>
+      <c r="V50">
+        <v>0.09</v>
+      </c>
+      <c r="W50">
+        <v>0.020566</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>5.214170772332096</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.06290542172446353</v>
+      </c>
+      <c r="C51">
+        <v>58.64012876774159</v>
+      </c>
+      <c r="D51">
+        <v>103.3673287677416</v>
+      </c>
+      <c r="E51">
+        <v>51.3472</v>
+      </c>
+      <c r="F51">
+        <v>59.4272</v>
+      </c>
+      <c r="G51">
+        <v>14.7</v>
+      </c>
+      <c r="H51">
+        <v>113.2</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>8.33</v>
+      </c>
+      <c r="K51">
+        <v>1.47</v>
+      </c>
+      <c r="L51">
+        <v>6.86</v>
+      </c>
+      <c r="M51">
+        <v>1.34305472</v>
+      </c>
+      <c r="N51">
+        <v>5.516945280000001</v>
+      </c>
+      <c r="O51">
+        <v>0.4965250752000001</v>
+      </c>
+      <c r="P51">
+        <v>5.020420204800001</v>
+      </c>
+      <c r="Q51">
+        <v>6.4904202048</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1035844739695363</v>
+      </c>
+      <c r="T51">
+        <v>1.376034844758638</v>
+      </c>
+      <c r="U51">
+        <v>0.0226</v>
+      </c>
+      <c r="V51">
+        <v>0.09</v>
+      </c>
+      <c r="W51">
+        <v>0.020566</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>5.107759123917156</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.06297280860640514</v>
+      </c>
+      <c r="C52">
+        <v>57.31575157434605</v>
+      </c>
+      <c r="D52">
+        <v>103.255751574346</v>
+      </c>
+      <c r="E52">
+        <v>52.56</v>
+      </c>
+      <c r="F52">
+        <v>60.64</v>
+      </c>
+      <c r="G52">
+        <v>14.7</v>
+      </c>
+      <c r="H52">
+        <v>113.2</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>8.33</v>
+      </c>
+      <c r="K52">
+        <v>1.47</v>
+      </c>
+      <c r="L52">
+        <v>6.86</v>
+      </c>
+      <c r="M52">
+        <v>1.370464</v>
+      </c>
+      <c r="N52">
+        <v>5.489536</v>
+      </c>
+      <c r="O52">
+        <v>0.49405824</v>
+      </c>
+      <c r="P52">
+        <v>4.99547776</v>
+      </c>
+      <c r="Q52">
+        <v>6.46547776</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1053796172128103</v>
+      </c>
+      <c r="T52">
+        <v>1.402234064524939</v>
+      </c>
+      <c r="U52">
+        <v>0.0226</v>
+      </c>
+      <c r="V52">
+        <v>0.09</v>
+      </c>
+      <c r="W52">
+        <v>0.020566</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>5.005603941438812</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.06304019548834675</v>
+      </c>
+      <c r="C53">
+        <v>55.99161499946055</v>
+      </c>
+      <c r="D53">
+        <v>103.1444149994606</v>
+      </c>
+      <c r="E53">
+        <v>53.7728</v>
+      </c>
+      <c r="F53">
+        <v>61.8528</v>
+      </c>
+      <c r="G53">
+        <v>14.7</v>
+      </c>
+      <c r="H53">
+        <v>113.2</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>8.33</v>
+      </c>
+      <c r="K53">
+        <v>1.47</v>
+      </c>
+      <c r="L53">
+        <v>6.86</v>
+      </c>
+      <c r="M53">
+        <v>1.39787328</v>
+      </c>
+      <c r="N53">
+        <v>5.462126720000001</v>
+      </c>
+      <c r="O53">
+        <v>0.4915914048</v>
+      </c>
+      <c r="P53">
+        <v>4.9705353152</v>
+      </c>
+      <c r="Q53">
+        <v>6.4405353152</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1072480316088709</v>
+      </c>
+      <c r="T53">
+        <v>1.429502640200069</v>
+      </c>
+      <c r="U53">
+        <v>0.0226</v>
+      </c>
+      <c r="V53">
+        <v>0.09</v>
+      </c>
+      <c r="W53">
+        <v>0.020566</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>4.907454844547855</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.06310758237028835</v>
+      </c>
+      <c r="C54">
+        <v>54.6677182655753</v>
+      </c>
+      <c r="D54">
+        <v>103.0333182655753</v>
+      </c>
+      <c r="E54">
+        <v>54.98560000000001</v>
+      </c>
+      <c r="F54">
+        <v>63.0656</v>
+      </c>
+      <c r="G54">
+        <v>14.7</v>
+      </c>
+      <c r="H54">
+        <v>113.2</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>8.33</v>
+      </c>
+      <c r="K54">
+        <v>1.47</v>
+      </c>
+      <c r="L54">
+        <v>6.86</v>
+      </c>
+      <c r="M54">
+        <v>1.42528256</v>
+      </c>
+      <c r="N54">
+        <v>5.43471744</v>
+      </c>
+      <c r="O54">
+        <v>0.4891245696</v>
+      </c>
+      <c r="P54">
+        <v>4.9455928704</v>
+      </c>
+      <c r="Q54">
+        <v>6.415592870399999</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1091942966047674</v>
+      </c>
+      <c r="T54">
+        <v>1.457907406528329</v>
+      </c>
+      <c r="U54">
+        <v>0.0226</v>
+      </c>
+      <c r="V54">
+        <v>0.09</v>
+      </c>
+      <c r="W54">
+        <v>0.020566</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>4.813080712921934</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.06317496925222996</v>
+      </c>
+      <c r="C55">
+        <v>53.34406059852672</v>
+      </c>
+      <c r="D55">
+        <v>102.9224605985267</v>
+      </c>
+      <c r="E55">
+        <v>56.19840000000001</v>
+      </c>
+      <c r="F55">
+        <v>64.2784</v>
+      </c>
+      <c r="G55">
+        <v>14.7</v>
+      </c>
+      <c r="H55">
+        <v>113.2</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>8.33</v>
+      </c>
+      <c r="K55">
+        <v>1.47</v>
+      </c>
+      <c r="L55">
+        <v>6.86</v>
+      </c>
+      <c r="M55">
+        <v>1.45269184</v>
+      </c>
+      <c r="N55">
+        <v>5.40730816</v>
+      </c>
+      <c r="O55">
+        <v>0.4866577344</v>
+      </c>
+      <c r="P55">
+        <v>4.9206504256</v>
+      </c>
+      <c r="Q55">
+        <v>6.3906504256</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1112233813877233</v>
+      </c>
+      <c r="T55">
+        <v>1.487520886317366</v>
+      </c>
+      <c r="U55">
+        <v>0.0226</v>
+      </c>
+      <c r="V55">
+        <v>0.09</v>
+      </c>
+      <c r="W55">
+        <v>0.020566</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>4.722267869281898</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.06324235613417158</v>
+      </c>
+      <c r="C56">
+        <v>52.02064122747947</v>
+      </c>
+      <c r="D56">
+        <v>102.8118412274795</v>
+      </c>
+      <c r="E56">
+        <v>57.41120000000001</v>
+      </c>
+      <c r="F56">
+        <v>65.49120000000001</v>
+      </c>
+      <c r="G56">
+        <v>14.7</v>
+      </c>
+      <c r="H56">
+        <v>113.2</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>8.33</v>
+      </c>
+      <c r="K56">
+        <v>1.47</v>
+      </c>
+      <c r="L56">
+        <v>6.86</v>
+      </c>
+      <c r="M56">
+        <v>1.48010112</v>
+      </c>
+      <c r="N56">
+        <v>5.379898880000001</v>
+      </c>
+      <c r="O56">
+        <v>0.4841908992</v>
+      </c>
+      <c r="P56">
+        <v>4.895707980800001</v>
+      </c>
+      <c r="Q56">
+        <v>6.365707980800001</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1133406872481991</v>
+      </c>
+      <c r="T56">
+        <v>1.518421908705927</v>
+      </c>
+      <c r="U56">
+        <v>0.0226</v>
+      </c>
+      <c r="V56">
+        <v>0.09</v>
+      </c>
+      <c r="W56">
+        <v>0.020566</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>4.634818464295197</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.06330974301611318</v>
+      </c>
+      <c r="C57">
+        <v>50.69745938490863</v>
+      </c>
+      <c r="D57">
+        <v>102.7014593849086</v>
+      </c>
+      <c r="E57">
+        <v>58.62400000000001</v>
+      </c>
+      <c r="F57">
+        <v>66.70400000000001</v>
+      </c>
+      <c r="G57">
+        <v>14.7</v>
+      </c>
+      <c r="H57">
+        <v>113.2</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>8.33</v>
+      </c>
+      <c r="K57">
+        <v>1.47</v>
+      </c>
+      <c r="L57">
+        <v>6.86</v>
+      </c>
+      <c r="M57">
+        <v>1.5075104</v>
+      </c>
+      <c r="N57">
+        <v>5.3524896</v>
+      </c>
+      <c r="O57">
+        <v>0.481724064</v>
+      </c>
+      <c r="P57">
+        <v>4.870765536</v>
+      </c>
+      <c r="Q57">
+        <v>6.340765536</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1155520955913626</v>
+      </c>
+      <c r="T57">
+        <v>1.550696309867312</v>
+      </c>
+      <c r="U57">
+        <v>0.0226</v>
+      </c>
+      <c r="V57">
+        <v>0.09</v>
+      </c>
+      <c r="W57">
+        <v>0.020566</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>4.550549037671647</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1079954092737294</v>
+      </c>
+      <c r="C58">
+        <v>6.774243822496729</v>
+      </c>
+      <c r="D58">
+        <v>59.99104382249674</v>
+      </c>
+      <c r="E58">
+        <v>59.83680000000001</v>
+      </c>
+      <c r="F58">
+        <v>67.91680000000001</v>
+      </c>
+      <c r="G58">
+        <v>14.7</v>
+      </c>
+      <c r="H58">
+        <v>113.2</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>8.33</v>
+      </c>
+      <c r="K58">
+        <v>1.47</v>
+      </c>
+      <c r="L58">
+        <v>6.86</v>
+      </c>
+      <c r="M58">
+        <v>7.402931200000001</v>
+      </c>
+      <c r="N58">
+        <v>-0.5429312000000008</v>
+      </c>
+      <c r="O58">
+        <v>-0.04886380800000007</v>
+      </c>
+      <c r="P58">
+        <v>-0.4940673920000008</v>
+      </c>
+      <c r="Q58">
+        <v>0.9759326079999993</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1182866101867562</v>
+      </c>
+      <c r="T58">
+        <v>1.590605185722931</v>
+      </c>
+      <c r="U58">
+        <v>0.109</v>
+      </c>
+      <c r="V58">
+        <v>0.08339939725496839</v>
+      </c>
+      <c r="W58">
+        <v>0.09990946569920844</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.9266599694996489</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1089924092737294</v>
+      </c>
+      <c r="C59">
+        <v>5.00992613979281</v>
+      </c>
+      <c r="D59">
+        <v>59.43952613979282</v>
+      </c>
+      <c r="E59">
+        <v>61.04960000000001</v>
+      </c>
+      <c r="F59">
+        <v>69.12960000000001</v>
+      </c>
+      <c r="G59">
+        <v>14.7</v>
+      </c>
+      <c r="H59">
+        <v>113.2</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>8.33</v>
+      </c>
+      <c r="K59">
+        <v>1.47</v>
+      </c>
+      <c r="L59">
+        <v>6.86</v>
+      </c>
+      <c r="M59">
+        <v>7.535126400000001</v>
+      </c>
+      <c r="N59">
+        <v>-0.6751264000000008</v>
+      </c>
+      <c r="O59">
+        <v>-0.06076137600000007</v>
+      </c>
+      <c r="P59">
+        <v>-0.6143650240000007</v>
+      </c>
+      <c r="Q59">
+        <v>0.8556349759999993</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1208211825166807</v>
+      </c>
+      <c r="T59">
+        <v>1.627596003995557</v>
+      </c>
+      <c r="U59">
+        <v>0.109</v>
+      </c>
+      <c r="V59">
+        <v>0.0819362499347058</v>
+      </c>
+      <c r="W59">
+        <v>0.1000689487571171</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.9104027770522867</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1099894092737294</v>
+      </c>
+      <c r="C60">
+        <v>3.255656652829984</v>
+      </c>
+      <c r="D60">
+        <v>58.89805665282999</v>
+      </c>
+      <c r="E60">
+        <v>62.2624</v>
+      </c>
+      <c r="F60">
+        <v>70.3424</v>
+      </c>
+      <c r="G60">
+        <v>14.7</v>
+      </c>
+      <c r="H60">
+        <v>113.2</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>8.33</v>
+      </c>
+      <c r="K60">
+        <v>1.47</v>
+      </c>
+      <c r="L60">
+        <v>6.86</v>
+      </c>
+      <c r="M60">
+        <v>7.6673216</v>
+      </c>
+      <c r="N60">
+        <v>-0.8073215999999999</v>
+      </c>
+      <c r="O60">
+        <v>-0.07265894399999999</v>
+      </c>
+      <c r="P60">
+        <v>-0.7346626559999999</v>
+      </c>
+      <c r="Q60">
+        <v>0.7353373440000001</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1234764487670778</v>
+      </c>
+      <c r="T60">
+        <v>1.666348289804975</v>
+      </c>
+      <c r="U60">
+        <v>0.109</v>
+      </c>
+      <c r="V60">
+        <v>0.08052355597031433</v>
+      </c>
+      <c r="W60">
+        <v>0.1002229323992357</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.894706177447937</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1109864092737294</v>
+      </c>
+      <c r="C61">
+        <v>1.511163235845558</v>
+      </c>
+      <c r="D61">
+        <v>58.36636323584556</v>
+      </c>
+      <c r="E61">
+        <v>63.4752</v>
+      </c>
+      <c r="F61">
+        <v>71.5552</v>
+      </c>
+      <c r="G61">
+        <v>14.7</v>
+      </c>
+      <c r="H61">
+        <v>113.2</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>8.33</v>
+      </c>
+      <c r="K61">
+        <v>1.47</v>
+      </c>
+      <c r="L61">
+        <v>6.86</v>
+      </c>
+      <c r="M61">
+        <v>7.7995168</v>
+      </c>
+      <c r="N61">
+        <v>-0.9395167999999998</v>
+      </c>
+      <c r="O61">
+        <v>-0.08455651199999999</v>
+      </c>
+      <c r="P61">
+        <v>-0.8549602879999998</v>
+      </c>
+      <c r="Q61">
+        <v>0.6150397120000002</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1262612402004212</v>
+      </c>
+      <c r="T61">
+        <v>1.70699093101973</v>
+      </c>
+      <c r="U61">
+        <v>0.109</v>
+      </c>
+      <c r="V61">
+        <v>0.07915874993691917</v>
+      </c>
+      <c r="W61">
+        <v>0.1003716962568758</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.8795416659657685</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1119834092737294</v>
+      </c>
+      <c r="C62">
+        <v>-0.2238164985360243</v>
+      </c>
+      <c r="D62">
+        <v>57.84418350146397</v>
+      </c>
+      <c r="E62">
+        <v>64.688</v>
+      </c>
+      <c r="F62">
+        <v>72.768</v>
+      </c>
+      <c r="G62">
+        <v>14.7</v>
+      </c>
+      <c r="H62">
+        <v>113.2</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>8.33</v>
+      </c>
+      <c r="K62">
+        <v>1.47</v>
+      </c>
+      <c r="L62">
+        <v>6.86</v>
+      </c>
+      <c r="M62">
+        <v>7.931712</v>
+      </c>
+      <c r="N62">
+        <v>-1.071712</v>
+      </c>
+      <c r="O62">
+        <v>-0.09645407999999997</v>
+      </c>
+      <c r="P62">
+        <v>-0.9752579199999998</v>
+      </c>
+      <c r="Q62">
+        <v>0.4947420800000002</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1291852712054317</v>
+      </c>
+      <c r="T62">
+        <v>1.749665704295224</v>
+      </c>
+      <c r="U62">
+        <v>0.109</v>
+      </c>
+      <c r="V62">
+        <v>0.07783943743797052</v>
+      </c>
+      <c r="W62">
+        <v>0.1005155013192612</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.8648826381996724</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1129804092737294</v>
+      </c>
+      <c r="C63">
+        <v>-1.949535631067221</v>
+      </c>
+      <c r="D63">
+        <v>57.33126436893278</v>
+      </c>
+      <c r="E63">
+        <v>65.9008</v>
+      </c>
+      <c r="F63">
+        <v>73.9808</v>
+      </c>
+      <c r="G63">
+        <v>14.7</v>
+      </c>
+      <c r="H63">
+        <v>113.2</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>8.33</v>
+      </c>
+      <c r="K63">
+        <v>1.47</v>
+      </c>
+      <c r="L63">
+        <v>6.86</v>
+      </c>
+      <c r="M63">
+        <v>8.063907200000001</v>
+      </c>
+      <c r="N63">
+        <v>-1.203907200000001</v>
+      </c>
+      <c r="O63">
+        <v>-0.1083516480000001</v>
+      </c>
+      <c r="P63">
+        <v>-1.095555552000001</v>
+      </c>
+      <c r="Q63">
+        <v>0.3744444479999993</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1322592525183915</v>
+      </c>
+      <c r="T63">
+        <v>1.794528927482281</v>
+      </c>
+      <c r="U63">
+        <v>0.109</v>
+      </c>
+      <c r="V63">
+        <v>0.07656338108652837</v>
+      </c>
+      <c r="W63">
+        <v>0.1006545914615684</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.8507042342947597</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1139774092737294</v>
+      </c>
+      <c r="C64">
+        <v>-3.666238344871587</v>
+      </c>
+      <c r="D64">
+        <v>56.82736165512842</v>
+      </c>
+      <c r="E64">
+        <v>67.11360000000001</v>
+      </c>
+      <c r="F64">
+        <v>75.1936</v>
+      </c>
+      <c r="G64">
+        <v>14.7</v>
+      </c>
+      <c r="H64">
+        <v>113.2</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>8.33</v>
+      </c>
+      <c r="K64">
+        <v>1.47</v>
+      </c>
+      <c r="L64">
+        <v>6.86</v>
+      </c>
+      <c r="M64">
+        <v>8.196102400000001</v>
+      </c>
+      <c r="N64">
+        <v>-1.336102400000001</v>
+      </c>
+      <c r="O64">
+        <v>-0.120249216</v>
+      </c>
+      <c r="P64">
+        <v>-1.215853184000001</v>
+      </c>
+      <c r="Q64">
+        <v>0.2541468159999993</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1354950223215071</v>
+      </c>
+      <c r="T64">
+        <v>1.841753372942341</v>
+      </c>
+      <c r="U64">
+        <v>0.109</v>
+      </c>
+      <c r="V64">
+        <v>0.07532848784319728</v>
+      </c>
+      <c r="W64">
+        <v>0.1007891948250915</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.8369831982577475</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1149744092737294</v>
+      </c>
+      <c r="C65">
+        <v>-5.374160313057388</v>
+      </c>
+      <c r="D65">
+        <v>56.33223968694261</v>
+      </c>
+      <c r="E65">
+        <v>68.32640000000001</v>
+      </c>
+      <c r="F65">
+        <v>76.4064</v>
+      </c>
+      <c r="G65">
+        <v>14.7</v>
+      </c>
+      <c r="H65">
+        <v>113.2</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>8.33</v>
+      </c>
+      <c r="K65">
+        <v>1.47</v>
+      </c>
+      <c r="L65">
+        <v>6.86</v>
+      </c>
+      <c r="M65">
+        <v>8.328297600000001</v>
+      </c>
+      <c r="N65">
+        <v>-1.468297600000001</v>
+      </c>
+      <c r="O65">
+        <v>-0.132146784</v>
+      </c>
+      <c r="P65">
+        <v>-1.336150816</v>
+      </c>
+      <c r="Q65">
+        <v>0.1338491839999996</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1389056986004668</v>
+      </c>
+      <c r="T65">
+        <v>1.891530491129972</v>
+      </c>
+      <c r="U65">
+        <v>0.109</v>
+      </c>
+      <c r="V65">
+        <v>0.07413279755997192</v>
+      </c>
+      <c r="W65">
+        <v>0.1009195250659631</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.8236977506663546</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1159714092737294</v>
+      </c>
+      <c r="C66">
+        <v>-7.073529066243267</v>
+      </c>
+      <c r="D66">
+        <v>55.84567093375674</v>
+      </c>
+      <c r="E66">
+        <v>69.53920000000001</v>
+      </c>
+      <c r="F66">
+        <v>77.61920000000001</v>
+      </c>
+      <c r="G66">
+        <v>14.7</v>
+      </c>
+      <c r="H66">
+        <v>113.2</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>8.33</v>
+      </c>
+      <c r="K66">
+        <v>1.47</v>
+      </c>
+      <c r="L66">
+        <v>6.86</v>
+      </c>
+      <c r="M66">
+        <v>8.460492800000001</v>
+      </c>
+      <c r="N66">
+        <v>-1.6004928</v>
+      </c>
+      <c r="O66">
+        <v>-0.144044352</v>
+      </c>
+      <c r="P66">
+        <v>-1.456448448</v>
+      </c>
+      <c r="Q66">
+        <v>0.01355155199999958</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1425058568949242</v>
+      </c>
+      <c r="T66">
+        <v>1.944073004772471</v>
+      </c>
+      <c r="U66">
+        <v>0.109</v>
+      </c>
+      <c r="V66">
+        <v>0.07297447259809735</v>
+      </c>
+      <c r="W66">
+        <v>0.1010457824868074</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.8108274733121928</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1377712331542369</v>
+      </c>
+      <c r="C67">
+        <v>-17.15795090276237</v>
+      </c>
+      <c r="D67">
+        <v>46.97404909723764</v>
+      </c>
+      <c r="E67">
+        <v>70.75200000000001</v>
+      </c>
+      <c r="F67">
+        <v>78.83200000000001</v>
+      </c>
+      <c r="G67">
+        <v>14.7</v>
+      </c>
+      <c r="H67">
+        <v>113.2</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>8.33</v>
+      </c>
+      <c r="K67">
+        <v>1.47</v>
+      </c>
+      <c r="L67">
+        <v>6.86</v>
+      </c>
+      <c r="M67">
+        <v>11.0522464</v>
+      </c>
+      <c r="N67">
+        <v>-4.192246399999999</v>
+      </c>
+      <c r="O67">
+        <v>-0.3773021759999999</v>
+      </c>
+      <c r="P67">
+        <v>-3.814944224</v>
+      </c>
+      <c r="Q67">
+        <v>-2.344944224</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.147805521036229</v>
+      </c>
+      <c r="T67">
+        <v>2.021418958108431</v>
+      </c>
+      <c r="U67">
+        <v>0.1402</v>
+      </c>
+      <c r="V67">
+        <v>0.05586194676224374</v>
+      </c>
+      <c r="W67">
+        <v>0.1323681550639334</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.6206882973582638</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1390802331542369</v>
+      </c>
+      <c r="C68">
+        <v>-18.81459974509841</v>
+      </c>
+      <c r="D68">
+        <v>46.53020025490161</v>
+      </c>
+      <c r="E68">
+        <v>71.96480000000001</v>
+      </c>
+      <c r="F68">
+        <v>80.04480000000001</v>
+      </c>
+      <c r="G68">
+        <v>14.7</v>
+      </c>
+      <c r="H68">
+        <v>113.2</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>8.33</v>
+      </c>
+      <c r="K68">
+        <v>1.47</v>
+      </c>
+      <c r="L68">
+        <v>6.86</v>
+      </c>
+      <c r="M68">
+        <v>11.22228096</v>
+      </c>
+      <c r="N68">
+        <v>-4.362280960000001</v>
+      </c>
+      <c r="O68">
+        <v>-0.3926052864</v>
+      </c>
+      <c r="P68">
+        <v>-3.9696756736</v>
+      </c>
+      <c r="Q68">
+        <v>-2.499675673600001</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1518792128314122</v>
+      </c>
+      <c r="T68">
+        <v>2.080872456876326</v>
+      </c>
+      <c r="U68">
+        <v>0.1402</v>
+      </c>
+      <c r="V68">
+        <v>0.05501555362948247</v>
+      </c>
+      <c r="W68">
+        <v>0.1324868193811465</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.6112839292164718</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1403892331542369</v>
+      </c>
+      <c r="C69">
+        <v>-20.46293941290739</v>
+      </c>
+      <c r="D69">
+        <v>46.09466058709263</v>
+      </c>
+      <c r="E69">
+        <v>73.17760000000001</v>
+      </c>
+      <c r="F69">
+        <v>81.25760000000001</v>
+      </c>
+      <c r="G69">
+        <v>14.7</v>
+      </c>
+      <c r="H69">
+        <v>113.2</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>8.33</v>
+      </c>
+      <c r="K69">
+        <v>1.47</v>
+      </c>
+      <c r="L69">
+        <v>6.86</v>
+      </c>
+      <c r="M69">
+        <v>11.39231552</v>
+      </c>
+      <c r="N69">
+        <v>-4.53231552</v>
+      </c>
+      <c r="O69">
+        <v>-0.4079083968</v>
+      </c>
+      <c r="P69">
+        <v>-4.1244071232</v>
+      </c>
+      <c r="Q69">
+        <v>-2.6544071232</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1561997950384247</v>
+      </c>
+      <c r="T69">
+        <v>2.143929197993791</v>
+      </c>
+      <c r="U69">
+        <v>0.1402</v>
+      </c>
+      <c r="V69">
+        <v>0.05419442596337078</v>
+      </c>
+      <c r="W69">
+        <v>0.1326019414799354</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.6021602884818977</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1416982331542369</v>
+      </c>
+      <c r="C70">
+        <v>-22.1032010731071</v>
+      </c>
+      <c r="D70">
+        <v>45.66719892689292</v>
+      </c>
+      <c r="E70">
+        <v>74.39040000000001</v>
+      </c>
+      <c r="F70">
+        <v>82.47040000000001</v>
+      </c>
+      <c r="G70">
+        <v>14.7</v>
+      </c>
+      <c r="H70">
+        <v>113.2</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>8.33</v>
+      </c>
+      <c r="K70">
+        <v>1.47</v>
+      </c>
+      <c r="L70">
+        <v>6.86</v>
+      </c>
+      <c r="M70">
+        <v>11.56235008</v>
+      </c>
+      <c r="N70">
+        <v>-4.702350080000001</v>
+      </c>
+      <c r="O70">
+        <v>-0.4232115072000001</v>
+      </c>
+      <c r="P70">
+        <v>-4.279138572800001</v>
+      </c>
+      <c r="Q70">
+        <v>-2.809138572800001</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1607904136333755</v>
+      </c>
+      <c r="T70">
+        <v>2.210926985431097</v>
+      </c>
+      <c r="U70">
+        <v>0.1402</v>
+      </c>
+      <c r="V70">
+        <v>0.05339744911096827</v>
+      </c>
+      <c r="W70">
+        <v>0.1327136776346423</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.5933049901218697</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1430072331542369</v>
+      </c>
+      <c r="C71">
+        <v>-23.7356073964428</v>
+      </c>
+      <c r="D71">
+        <v>45.24759260355721</v>
+      </c>
+      <c r="E71">
+        <v>75.60320000000002</v>
+      </c>
+      <c r="F71">
+        <v>83.68320000000001</v>
+      </c>
+      <c r="G71">
+        <v>14.7</v>
+      </c>
+      <c r="H71">
+        <v>113.2</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>8.33</v>
+      </c>
+      <c r="K71">
+        <v>1.47</v>
+      </c>
+      <c r="L71">
+        <v>6.86</v>
+      </c>
+      <c r="M71">
+        <v>11.73238464</v>
+      </c>
+      <c r="N71">
+        <v>-4.872384640000001</v>
+      </c>
+      <c r="O71">
+        <v>-0.4385146176</v>
+      </c>
+      <c r="P71">
+        <v>-4.433870022400001</v>
+      </c>
+      <c r="Q71">
+        <v>-2.963870022400001</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.165677201169936</v>
+      </c>
+      <c r="T71">
+        <v>2.282247210767584</v>
+      </c>
+      <c r="U71">
+        <v>0.1402</v>
+      </c>
+      <c r="V71">
+        <v>0.05262357303689627</v>
+      </c>
+      <c r="W71">
+        <v>0.1328221750602271</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.5847063670766253</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1443162331542369</v>
+      </c>
+      <c r="C72">
+        <v>-25.36037294426249</v>
+      </c>
+      <c r="D72">
+        <v>44.83562705573752</v>
+      </c>
+      <c r="E72">
+        <v>76.81600000000002</v>
+      </c>
+      <c r="F72">
+        <v>84.89600000000002</v>
+      </c>
+      <c r="G72">
+        <v>14.7</v>
+      </c>
+      <c r="H72">
+        <v>113.2</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>8.33</v>
+      </c>
+      <c r="K72">
+        <v>1.47</v>
+      </c>
+      <c r="L72">
+        <v>6.86</v>
+      </c>
+      <c r="M72">
+        <v>11.9024192</v>
+      </c>
+      <c r="N72">
+        <v>-5.0424192</v>
+      </c>
+      <c r="O72">
+        <v>-0.453817728</v>
+      </c>
+      <c r="P72">
+        <v>-4.588601472000001</v>
+      </c>
+      <c r="Q72">
+        <v>-3.118601472000001</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1708897745422672</v>
+      </c>
+      <c r="T72">
+        <v>2.35832211779317</v>
+      </c>
+      <c r="U72">
+        <v>0.1402</v>
+      </c>
+      <c r="V72">
+        <v>0.05187180770779775</v>
+      </c>
+      <c r="W72">
+        <v>0.1329275725593667</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.5763534189755306</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1456252331542369</v>
+      </c>
+      <c r="C73">
+        <v>-26.97770453435409</v>
+      </c>
+      <c r="D73">
+        <v>44.43109546564591</v>
+      </c>
+      <c r="E73">
+        <v>78.0288</v>
+      </c>
+      <c r="F73">
+        <v>86.1088</v>
+      </c>
+      <c r="G73">
+        <v>14.7</v>
+      </c>
+      <c r="H73">
+        <v>113.2</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>8.33</v>
+      </c>
+      <c r="K73">
+        <v>1.47</v>
+      </c>
+      <c r="L73">
+        <v>6.86</v>
+      </c>
+      <c r="M73">
+        <v>12.07245376</v>
+      </c>
+      <c r="N73">
+        <v>-5.21245376</v>
+      </c>
+      <c r="O73">
+        <v>-0.4691208384</v>
+      </c>
+      <c r="P73">
+        <v>-4.7433329216</v>
+      </c>
+      <c r="Q73">
+        <v>-3.2733329216</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1764618357333798</v>
+      </c>
+      <c r="T73">
+        <v>2.439643570130865</v>
+      </c>
+      <c r="U73">
+        <v>0.1402</v>
+      </c>
+      <c r="V73">
+        <v>0.05114121886684286</v>
+      </c>
+      <c r="W73">
+        <v>0.1330300011148686</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.5682357651871428</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1469342331542369</v>
+      </c>
+      <c r="C74">
+        <v>-28.58780158715493</v>
+      </c>
+      <c r="D74">
+        <v>44.03379841284508</v>
+      </c>
+      <c r="E74">
+        <v>79.24160000000001</v>
+      </c>
+      <c r="F74">
+        <v>87.3216</v>
+      </c>
+      <c r="G74">
+        <v>14.7</v>
+      </c>
+      <c r="H74">
+        <v>113.2</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>8.33</v>
+      </c>
+      <c r="K74">
+        <v>1.47</v>
+      </c>
+      <c r="L74">
+        <v>6.86</v>
+      </c>
+      <c r="M74">
+        <v>12.24248832</v>
+      </c>
+      <c r="N74">
+        <v>-5.382488319999999</v>
+      </c>
+      <c r="O74">
+        <v>-0.4844239487999999</v>
+      </c>
+      <c r="P74">
+        <v>-4.898064371199999</v>
+      </c>
+      <c r="Q74">
+        <v>-3.4280643712</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1824319012952862</v>
+      </c>
+      <c r="T74">
+        <v>2.526773697635539</v>
+      </c>
+      <c r="U74">
+        <v>0.1402</v>
+      </c>
+      <c r="V74">
+        <v>0.05043092416035893</v>
+      </c>
+      <c r="W74">
+        <v>0.1331295844327177</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.5603436017817659</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1482432331542369</v>
+      </c>
+      <c r="C75">
+        <v>-30.19085645355126</v>
+      </c>
+      <c r="D75">
+        <v>43.64354354644874</v>
+      </c>
+      <c r="E75">
+        <v>80.45440000000001</v>
+      </c>
+      <c r="F75">
+        <v>88.53440000000001</v>
+      </c>
+      <c r="G75">
+        <v>14.7</v>
+      </c>
+      <c r="H75">
+        <v>113.2</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>8.33</v>
+      </c>
+      <c r="K75">
+        <v>1.47</v>
+      </c>
+      <c r="L75">
+        <v>6.86</v>
+      </c>
+      <c r="M75">
+        <v>12.41252288</v>
+      </c>
+      <c r="N75">
+        <v>-5.552522879999999</v>
+      </c>
+      <c r="O75">
+        <v>-0.4997270591999999</v>
+      </c>
+      <c r="P75">
+        <v>-5.052795820799999</v>
+      </c>
+      <c r="Q75">
+        <v>-3.582795820799999</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1888441939358524</v>
+      </c>
+      <c r="T75">
+        <v>2.620357908659077</v>
+      </c>
+      <c r="U75">
+        <v>0.1402</v>
+      </c>
+      <c r="V75">
+        <v>0.04974008958281977</v>
+      </c>
+      <c r="W75">
+        <v>0.1332264394404887</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.5526676620313308</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1495522331542369</v>
+      </c>
+      <c r="C76">
+        <v>-31.78705472540011</v>
+      </c>
+      <c r="D76">
+        <v>43.26014527459989</v>
+      </c>
+      <c r="E76">
+        <v>81.66720000000001</v>
+      </c>
+      <c r="F76">
+        <v>89.74720000000001</v>
+      </c>
+      <c r="G76">
+        <v>14.7</v>
+      </c>
+      <c r="H76">
+        <v>113.2</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>8.33</v>
+      </c>
+      <c r="K76">
+        <v>1.47</v>
+      </c>
+      <c r="L76">
+        <v>6.86</v>
+      </c>
+      <c r="M76">
+        <v>12.58255744</v>
+      </c>
+      <c r="N76">
+        <v>-5.72255744</v>
+      </c>
+      <c r="O76">
+        <v>-0.5150301696</v>
+      </c>
+      <c r="P76">
+        <v>-5.2075272704</v>
+      </c>
+      <c r="Q76">
+        <v>-3.7375272704</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1957497398564621</v>
+      </c>
+      <c r="T76">
+        <v>2.721140905145965</v>
+      </c>
+      <c r="U76">
+        <v>0.1402</v>
+      </c>
+      <c r="V76">
+        <v>0.04906792621007896</v>
+      </c>
+      <c r="W76">
+        <v>0.1333206767453469</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.5451991801119884</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1508612331542369</v>
+      </c>
+      <c r="C77">
+        <v>-33.37657552982624</v>
+      </c>
+      <c r="D77">
+        <v>42.88342447017376</v>
+      </c>
+      <c r="E77">
+        <v>82.88000000000001</v>
+      </c>
+      <c r="F77">
+        <v>90.96000000000001</v>
+      </c>
+      <c r="G77">
+        <v>14.7</v>
+      </c>
+      <c r="H77">
+        <v>113.2</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>8.33</v>
+      </c>
+      <c r="K77">
+        <v>1.47</v>
+      </c>
+      <c r="L77">
+        <v>6.86</v>
+      </c>
+      <c r="M77">
+        <v>12.752592</v>
+      </c>
+      <c r="N77">
+        <v>-5.892592</v>
+      </c>
+      <c r="O77">
+        <v>-0.5303332799999999</v>
+      </c>
+      <c r="P77">
+        <v>-5.36225872</v>
+      </c>
+      <c r="Q77">
+        <v>-3.89225872</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2032077294507206</v>
+      </c>
+      <c r="T77">
+        <v>2.829986541351803</v>
+      </c>
+      <c r="U77">
+        <v>0.1402</v>
+      </c>
+      <c r="V77">
+        <v>0.04841368719394457</v>
+      </c>
+      <c r="W77">
+        <v>0.133412401055409</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.5379298577104953</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1521702331542369</v>
+      </c>
+      <c r="C78">
+        <v>-34.95959180827515</v>
+      </c>
+      <c r="D78">
+        <v>42.51320819172485</v>
+      </c>
+      <c r="E78">
+        <v>84.0928</v>
+      </c>
+      <c r="F78">
+        <v>92.1728</v>
+      </c>
+      <c r="G78">
+        <v>14.7</v>
+      </c>
+      <c r="H78">
+        <v>113.2</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>8.33</v>
+      </c>
+      <c r="K78">
+        <v>1.47</v>
+      </c>
+      <c r="L78">
+        <v>6.86</v>
+      </c>
+      <c r="M78">
+        <v>12.92262656</v>
+      </c>
+      <c r="N78">
+        <v>-6.062626559999997</v>
+      </c>
+      <c r="O78">
+        <v>-0.5456363903999998</v>
+      </c>
+      <c r="P78">
+        <v>-5.516990169599998</v>
+      </c>
+      <c r="Q78">
+        <v>-4.046990169599998</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2112872181778339</v>
+      </c>
+      <c r="T78">
+        <v>2.947902647241462</v>
+      </c>
+      <c r="U78">
+        <v>0.1402</v>
+      </c>
+      <c r="V78">
+        <v>0.04777666499402426</v>
+      </c>
+      <c r="W78">
+        <v>0.1335017115678378</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.5308518332669363</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1534792331542369</v>
+      </c>
+      <c r="C79">
+        <v>-36.53627058123521</v>
+      </c>
+      <c r="D79">
+        <v>42.14932941876478</v>
+      </c>
+      <c r="E79">
+        <v>85.3056</v>
+      </c>
+      <c r="F79">
+        <v>93.3856</v>
+      </c>
+      <c r="G79">
+        <v>14.7</v>
+      </c>
+      <c r="H79">
+        <v>113.2</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>8.33</v>
+      </c>
+      <c r="K79">
+        <v>1.47</v>
+      </c>
+      <c r="L79">
+        <v>6.86</v>
+      </c>
+      <c r="M79">
+        <v>13.09266112</v>
+      </c>
+      <c r="N79">
+        <v>-6.232661119999999</v>
+      </c>
+      <c r="O79">
+        <v>-0.5609395007999999</v>
+      </c>
+      <c r="P79">
+        <v>-5.671721619199999</v>
+      </c>
+      <c r="Q79">
+        <v>-4.201721619199999</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2200692711420876</v>
+      </c>
+      <c r="T79">
+        <v>3.076072327556308</v>
+      </c>
+      <c r="U79">
+        <v>0.1402</v>
+      </c>
+      <c r="V79">
+        <v>0.04715618882527069</v>
+      </c>
+      <c r="W79">
+        <v>0.133588702326697</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.5239576536141188</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1547882331542369</v>
+      </c>
+      <c r="C80">
+        <v>-38.1067731994803</v>
+      </c>
+      <c r="D80">
+        <v>41.79162680051969</v>
+      </c>
+      <c r="E80">
+        <v>86.5184</v>
+      </c>
+      <c r="F80">
+        <v>94.5984</v>
+      </c>
+      <c r="G80">
+        <v>14.7</v>
+      </c>
+      <c r="H80">
+        <v>113.2</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>8.33</v>
+      </c>
+      <c r="K80">
+        <v>1.47</v>
+      </c>
+      <c r="L80">
+        <v>6.86</v>
+      </c>
+      <c r="M80">
+        <v>13.26269568</v>
+      </c>
+      <c r="N80">
+        <v>-6.402695679999998</v>
+      </c>
+      <c r="O80">
+        <v>-0.5762426111999998</v>
+      </c>
+      <c r="P80">
+        <v>-5.826453068799998</v>
+      </c>
+      <c r="Q80">
+        <v>-4.356453068799999</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2296496925576371</v>
+      </c>
+      <c r="T80">
+        <v>3.215893796990686</v>
+      </c>
+      <c r="U80">
+        <v>0.1402</v>
+      </c>
+      <c r="V80">
+        <v>0.04655162230186978</v>
+      </c>
+      <c r="W80">
+        <v>0.1336734625532778</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.5172402477985532</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1560972331542369</v>
+      </c>
+      <c r="C81">
+        <v>-39.67125558262698</v>
+      </c>
+      <c r="D81">
+        <v>41.43994441737302</v>
+      </c>
+      <c r="E81">
+        <v>87.7312</v>
+      </c>
+      <c r="F81">
+        <v>95.8112</v>
+      </c>
+      <c r="G81">
+        <v>14.7</v>
+      </c>
+      <c r="H81">
+        <v>113.2</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>8.33</v>
+      </c>
+      <c r="K81">
+        <v>1.47</v>
+      </c>
+      <c r="L81">
+        <v>6.86</v>
+      </c>
+      <c r="M81">
+        <v>13.43273024</v>
+      </c>
+      <c r="N81">
+        <v>-6.572730239999999</v>
+      </c>
+      <c r="O81">
+        <v>-0.5915457216</v>
+      </c>
+      <c r="P81">
+        <v>-5.981184518399999</v>
+      </c>
+      <c r="Q81">
+        <v>-4.511184518399999</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2401425350603817</v>
+      </c>
+      <c r="T81">
+        <v>3.369031596847386</v>
+      </c>
+      <c r="U81">
+        <v>0.1402</v>
+      </c>
+      <c r="V81">
+        <v>0.04596236126007396</v>
+      </c>
+      <c r="W81">
+        <v>0.1337560769513376</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.5106929028897107</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1574062331542369</v>
+      </c>
+      <c r="C82">
+        <v>-41.22986844574727</v>
+      </c>
+      <c r="D82">
+        <v>41.09413155425273</v>
+      </c>
+      <c r="E82">
+        <v>88.944</v>
+      </c>
+      <c r="F82">
+        <v>97.024</v>
+      </c>
+      <c r="G82">
+        <v>14.7</v>
+      </c>
+      <c r="H82">
+        <v>113.2</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>8.33</v>
+      </c>
+      <c r="K82">
+        <v>1.47</v>
+      </c>
+      <c r="L82">
+        <v>6.86</v>
+      </c>
+      <c r="M82">
+        <v>13.6027648</v>
+      </c>
+      <c r="N82">
+        <v>-6.742764799999999</v>
+      </c>
+      <c r="O82">
+        <v>-0.6068488319999998</v>
+      </c>
+      <c r="P82">
+        <v>-6.135915967999999</v>
+      </c>
+      <c r="Q82">
+        <v>-4.665915967999999</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2516846618134008</v>
+      </c>
+      <c r="T82">
+        <v>3.537483176689755</v>
+      </c>
+      <c r="U82">
+        <v>0.1402</v>
+      </c>
+      <c r="V82">
+        <v>0.04538783174432304</v>
+      </c>
+      <c r="W82">
+        <v>0.1338366259894459</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.5043092416035894</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1943827543756797</v>
+      </c>
+      <c r="C83">
+        <v>-50.28176176269437</v>
+      </c>
+      <c r="D83">
+        <v>33.25503823730563</v>
+      </c>
+      <c r="E83">
+        <v>90.1568</v>
+      </c>
+      <c r="F83">
+        <v>98.2368</v>
+      </c>
+      <c r="G83">
+        <v>14.7</v>
+      </c>
+      <c r="H83">
+        <v>113.2</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>8.33</v>
+      </c>
+      <c r="K83">
+        <v>1.47</v>
+      </c>
+      <c r="L83">
+        <v>6.86</v>
+      </c>
+      <c r="M83">
+        <v>18.04610016</v>
+      </c>
+      <c r="N83">
+        <v>-11.18610016</v>
+      </c>
+      <c r="O83">
+        <v>-1.0067490144</v>
+      </c>
+      <c r="P83">
+        <v>-10.1793511456</v>
+      </c>
+      <c r="Q83">
+        <v>-8.709351145600001</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2667181767585418</v>
+      </c>
+      <c r="T83">
+        <v>3.756889824812942</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.0342123779944708</v>
+      </c>
+      <c r="W83">
+        <v>0.1774151861624157</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.3801375332718977</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1961267543756797</v>
+      </c>
+      <c r="C84">
+        <v>-51.79109539452352</v>
+      </c>
+      <c r="D84">
+        <v>32.95850460547648</v>
+      </c>
+      <c r="E84">
+        <v>91.36960000000001</v>
+      </c>
+      <c r="F84">
+        <v>99.4496</v>
+      </c>
+      <c r="G84">
+        <v>14.7</v>
+      </c>
+      <c r="H84">
+        <v>113.2</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>8.33</v>
+      </c>
+      <c r="K84">
+        <v>1.47</v>
+      </c>
+      <c r="L84">
+        <v>6.86</v>
+      </c>
+      <c r="M84">
+        <v>18.26889152</v>
+      </c>
+      <c r="N84">
+        <v>-11.40889152</v>
+      </c>
+      <c r="O84">
+        <v>-1.0268002368</v>
+      </c>
+      <c r="P84">
+        <v>-10.3820912832</v>
+      </c>
+      <c r="Q84">
+        <v>-8.912091283200001</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2810191865784608</v>
+      </c>
+      <c r="T84">
+        <v>3.965605926191439</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.03379515387258701</v>
+      </c>
+      <c r="W84">
+        <v>0.1774918302336058</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.3755017096954112</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1978707543756797</v>
+      </c>
+      <c r="C85">
+        <v>-53.29518741232943</v>
+      </c>
+      <c r="D85">
+        <v>32.66721258767058</v>
+      </c>
+      <c r="E85">
+        <v>92.58240000000001</v>
+      </c>
+      <c r="F85">
+        <v>100.6624</v>
+      </c>
+      <c r="G85">
+        <v>14.7</v>
+      </c>
+      <c r="H85">
+        <v>113.2</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>8.33</v>
+      </c>
+      <c r="K85">
+        <v>1.47</v>
+      </c>
+      <c r="L85">
+        <v>6.86</v>
+      </c>
+      <c r="M85">
+        <v>18.49168288</v>
+      </c>
+      <c r="N85">
+        <v>-11.63168288</v>
+      </c>
+      <c r="O85">
+        <v>-1.0468514592</v>
+      </c>
+      <c r="P85">
+        <v>-10.5848314208</v>
+      </c>
+      <c r="Q85">
+        <v>-9.114831420800002</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2970026681418997</v>
+      </c>
+      <c r="T85">
+        <v>4.198876863026229</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.03338798334400162</v>
+      </c>
+      <c r="W85">
+        <v>0.1775666274597069</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.3709775927111291</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1996147543756797</v>
+      </c>
+      <c r="C86">
+        <v>-54.79417557698403</v>
+      </c>
+      <c r="D86">
+        <v>32.38102442301597</v>
+      </c>
+      <c r="E86">
+        <v>93.79519999999999</v>
+      </c>
+      <c r="F86">
+        <v>101.8752</v>
+      </c>
+      <c r="G86">
+        <v>14.7</v>
+      </c>
+      <c r="H86">
+        <v>113.2</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>8.33</v>
+      </c>
+      <c r="K86">
+        <v>1.47</v>
+      </c>
+      <c r="L86">
+        <v>6.86</v>
+      </c>
+      <c r="M86">
+        <v>18.71447424</v>
+      </c>
+      <c r="N86">
+        <v>-11.85447424</v>
+      </c>
+      <c r="O86">
+        <v>-1.0669026816</v>
+      </c>
+      <c r="P86">
+        <v>-10.7875715584</v>
+      </c>
+      <c r="Q86">
+        <v>-9.317571558399997</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3149840849007683</v>
+      </c>
+      <c r="T86">
+        <v>4.461306666965367</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.03299050735181113</v>
+      </c>
+      <c r="W86">
+        <v>0.1776396437994723</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.3665611927979014</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2013587543756797</v>
+      </c>
+      <c r="C87">
+        <v>-56.28819286374936</v>
+      </c>
+      <c r="D87">
+        <v>32.09980713625064</v>
+      </c>
+      <c r="E87">
+        <v>95.008</v>
+      </c>
+      <c r="F87">
+        <v>103.088</v>
+      </c>
+      <c r="G87">
+        <v>14.7</v>
+      </c>
+      <c r="H87">
+        <v>113.2</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>8.33</v>
+      </c>
+      <c r="K87">
+        <v>1.47</v>
+      </c>
+      <c r="L87">
+        <v>6.86</v>
+      </c>
+      <c r="M87">
+        <v>18.9372656</v>
+      </c>
+      <c r="N87">
+        <v>-12.0772656</v>
+      </c>
+      <c r="O87">
+        <v>-1.086953904</v>
+      </c>
+      <c r="P87">
+        <v>-10.990311696</v>
+      </c>
+      <c r="Q87">
+        <v>-9.520311696</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3353630238941528</v>
+      </c>
+      <c r="T87">
+        <v>4.758727111429724</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.03260238373590747</v>
+      </c>
+      <c r="W87">
+        <v>0.1777109421077138</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.3622487081767496</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2031027543756797</v>
+      </c>
+      <c r="C88">
+        <v>-57.77736766829449</v>
+      </c>
+      <c r="D88">
+        <v>31.8234323317055</v>
+      </c>
+      <c r="E88">
+        <v>96.2208</v>
+      </c>
+      <c r="F88">
+        <v>104.3008</v>
+      </c>
+      <c r="G88">
+        <v>14.7</v>
+      </c>
+      <c r="H88">
+        <v>113.2</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>8.33</v>
+      </c>
+      <c r="K88">
+        <v>1.47</v>
+      </c>
+      <c r="L88">
+        <v>6.86</v>
+      </c>
+      <c r="M88">
+        <v>19.16005696</v>
+      </c>
+      <c r="N88">
+        <v>-12.30005696</v>
+      </c>
+      <c r="O88">
+        <v>-1.1070051264</v>
+      </c>
+      <c r="P88">
+        <v>-11.1930518336</v>
+      </c>
+      <c r="Q88">
+        <v>-9.723051833599998</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3586532398865924</v>
+      </c>
+      <c r="T88">
+        <v>5.098636190817563</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.03222328625060622</v>
+      </c>
+      <c r="W88">
+        <v>0.1777805823157636</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.3580365138956246</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2048467543756796</v>
+      </c>
+      <c r="C89">
+        <v>-59.26182400216096</v>
+      </c>
+      <c r="D89">
+        <v>31.55177599783903</v>
+      </c>
+      <c r="E89">
+        <v>97.4336</v>
+      </c>
+      <c r="F89">
+        <v>105.5136</v>
+      </c>
+      <c r="G89">
+        <v>14.7</v>
+      </c>
+      <c r="H89">
+        <v>113.2</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>8.33</v>
+      </c>
+      <c r="K89">
+        <v>1.47</v>
+      </c>
+      <c r="L89">
+        <v>6.86</v>
+      </c>
+      <c r="M89">
+        <v>19.38284832</v>
+      </c>
+      <c r="N89">
+        <v>-12.52284832</v>
+      </c>
+      <c r="O89">
+        <v>-1.1270563488</v>
+      </c>
+      <c r="P89">
+        <v>-11.3957919712</v>
+      </c>
+      <c r="Q89">
+        <v>-9.925791971200001</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3855265660317148</v>
+      </c>
+      <c r="T89">
+        <v>5.490838974726605</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.03185290365002454</v>
+      </c>
+      <c r="W89">
+        <v>0.1778486215994905</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.3539211516669393</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2065907543756796</v>
+      </c>
+      <c r="C90">
+        <v>-60.74168167830142</v>
+      </c>
+      <c r="D90">
+        <v>31.28471832169858</v>
+      </c>
+      <c r="E90">
+        <v>98.6464</v>
+      </c>
+      <c r="F90">
+        <v>106.7264</v>
+      </c>
+      <c r="G90">
+        <v>14.7</v>
+      </c>
+      <c r="H90">
+        <v>113.2</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>8.33</v>
+      </c>
+      <c r="K90">
+        <v>1.47</v>
+      </c>
+      <c r="L90">
+        <v>6.86</v>
+      </c>
+      <c r="M90">
+        <v>19.60563968</v>
+      </c>
+      <c r="N90">
+        <v>-12.74563968</v>
+      </c>
+      <c r="O90">
+        <v>-1.1471075712</v>
+      </c>
+      <c r="P90">
+        <v>-11.5985321088</v>
+      </c>
+      <c r="Q90">
+        <v>-10.1285321088</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4168787798676911</v>
+      </c>
+      <c r="T90">
+        <v>5.948408889287156</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.03149093883581972</v>
+      </c>
+      <c r="W90">
+        <v>0.1779151145358599</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.3498993203979968</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2083347543756797</v>
+      </c>
+      <c r="C91">
+        <v>-62.2170564872748</v>
+      </c>
+      <c r="D91">
+        <v>31.0221435127252</v>
+      </c>
+      <c r="E91">
+        <v>99.8592</v>
+      </c>
+      <c r="F91">
+        <v>107.9392</v>
+      </c>
+      <c r="G91">
+        <v>14.7</v>
+      </c>
+      <c r="H91">
+        <v>113.2</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>8.33</v>
+      </c>
+      <c r="K91">
+        <v>1.47</v>
+      </c>
+      <c r="L91">
+        <v>6.86</v>
+      </c>
+      <c r="M91">
+        <v>19.82843104</v>
+      </c>
+      <c r="N91">
+        <v>-12.96843104</v>
+      </c>
+      <c r="O91">
+        <v>-1.1671587936</v>
+      </c>
+      <c r="P91">
+        <v>-11.8012722464</v>
+      </c>
+      <c r="Q91">
+        <v>-10.3312722464</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.4539313962192994</v>
+      </c>
+      <c r="T91">
+        <v>6.489173333767807</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.03113710806238353</v>
+      </c>
+      <c r="W91">
+        <v>0.1779801132489401</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.345967867359817</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2100787543756797</v>
+      </c>
+      <c r="C92">
+        <v>-63.68806036464264</v>
+      </c>
+      <c r="D92">
+        <v>30.76393963535737</v>
+      </c>
+      <c r="E92">
+        <v>101.072</v>
+      </c>
+      <c r="F92">
+        <v>109.152</v>
+      </c>
+      <c r="G92">
+        <v>14.7</v>
+      </c>
+      <c r="H92">
+        <v>113.2</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>8.33</v>
+      </c>
+      <c r="K92">
+        <v>1.47</v>
+      </c>
+      <c r="L92">
+        <v>6.86</v>
+      </c>
+      <c r="M92">
+        <v>20.0512224</v>
+      </c>
+      <c r="N92">
+        <v>-13.1912224</v>
+      </c>
+      <c r="O92">
+        <v>-1.187210016</v>
+      </c>
+      <c r="P92">
+        <v>-12.004012384</v>
+      </c>
+      <c r="Q92">
+        <v>-10.534012384</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.4983945358412294</v>
+      </c>
+      <c r="T92">
+        <v>7.138090667144589</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.03079114019502372</v>
+      </c>
+      <c r="W92">
+        <v>0.1780436675461742</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.342123779944708</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2118227543756797</v>
+      </c>
+      <c r="C93">
+        <v>-65.15480155007444</v>
+      </c>
+      <c r="D93">
+        <v>30.50999844992557</v>
+      </c>
+      <c r="E93">
+        <v>102.2848</v>
+      </c>
+      <c r="F93">
+        <v>110.3648</v>
+      </c>
+      <c r="G93">
+        <v>14.7</v>
+      </c>
+      <c r="H93">
+        <v>113.2</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>8.33</v>
+      </c>
+      <c r="K93">
+        <v>1.47</v>
+      </c>
+      <c r="L93">
+        <v>6.86</v>
+      </c>
+      <c r="M93">
+        <v>20.27401376</v>
+      </c>
+      <c r="N93">
+        <v>-13.41401376</v>
+      </c>
+      <c r="O93">
+        <v>-1.2072612384</v>
+      </c>
+      <c r="P93">
+        <v>-12.2067525216</v>
+      </c>
+      <c r="Q93">
+        <v>-10.7367525216</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.5527383731569216</v>
+      </c>
+      <c r="T93">
+        <v>7.931211852382877</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.03045277601705643</v>
+      </c>
+      <c r="W93">
+        <v>0.1781058250456667</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.3383641779672937</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2135667543756797</v>
+      </c>
+      <c r="C94">
+        <v>-66.61738473863785</v>
+      </c>
+      <c r="D94">
+        <v>30.26021526136215</v>
+      </c>
+      <c r="E94">
+        <v>103.4976</v>
+      </c>
+      <c r="F94">
+        <v>111.5776</v>
+      </c>
+      <c r="G94">
+        <v>14.7</v>
+      </c>
+      <c r="H94">
+        <v>113.2</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>8.33</v>
+      </c>
+      <c r="K94">
+        <v>1.47</v>
+      </c>
+      <c r="L94">
+        <v>6.86</v>
+      </c>
+      <c r="M94">
+        <v>20.49680512</v>
+      </c>
+      <c r="N94">
+        <v>-13.63680512</v>
+      </c>
+      <c r="O94">
+        <v>-1.2273124608</v>
+      </c>
+      <c r="P94">
+        <v>-12.4094926592</v>
+      </c>
+      <c r="Q94">
+        <v>-10.9394926592</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.6206681698015369</v>
+      </c>
+      <c r="T94">
+        <v>8.922613333930739</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.03012176758208842</v>
+      </c>
+      <c r="W94">
+        <v>0.1781666312951704</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.3346863064676491</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2153107543756797</v>
+      </c>
+      <c r="C95">
+        <v>-68.07591122471734</v>
+      </c>
+      <c r="D95">
+        <v>30.01448877528266</v>
+      </c>
+      <c r="E95">
+        <v>104.7104</v>
+      </c>
+      <c r="F95">
+        <v>112.7904</v>
+      </c>
+      <c r="G95">
+        <v>14.7</v>
+      </c>
+      <c r="H95">
+        <v>113.2</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>8.33</v>
+      </c>
+      <c r="K95">
+        <v>1.47</v>
+      </c>
+      <c r="L95">
+        <v>6.86</v>
+      </c>
+      <c r="M95">
+        <v>20.71959648</v>
+      </c>
+      <c r="N95">
+        <v>-13.85959648</v>
+      </c>
+      <c r="O95">
+        <v>-1.2473636832</v>
+      </c>
+      <c r="P95">
+        <v>-12.6122327968</v>
+      </c>
+      <c r="Q95">
+        <v>-11.1422327968</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.7080064797731853</v>
+      </c>
+      <c r="T95">
+        <v>10.19727238163513</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.02979787760808747</v>
+      </c>
+      <c r="W95">
+        <v>0.1782261298833943</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.3310875289787497</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2170547543756797</v>
+      </c>
+      <c r="C96">
+        <v>-69.53047903897736</v>
+      </c>
+      <c r="D96">
+        <v>29.77272096102264</v>
+      </c>
+      <c r="E96">
+        <v>105.9232</v>
+      </c>
+      <c r="F96">
+        <v>114.0032</v>
+      </c>
+      <c r="G96">
+        <v>14.7</v>
+      </c>
+      <c r="H96">
+        <v>113.2</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>8.33</v>
+      </c>
+      <c r="K96">
+        <v>1.47</v>
+      </c>
+      <c r="L96">
+        <v>6.86</v>
+      </c>
+      <c r="M96">
+        <v>20.94238784</v>
+      </c>
+      <c r="N96">
+        <v>-14.08238784</v>
+      </c>
+      <c r="O96">
+        <v>-1.2674149056</v>
+      </c>
+      <c r="P96">
+        <v>-12.8149729344</v>
+      </c>
+      <c r="Q96">
+        <v>-11.3449729344</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.824457559735383</v>
+      </c>
+      <c r="T96">
+        <v>11.89681777857432</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.0294808789101291</v>
+      </c>
+      <c r="W96">
+        <v>0.1782843625442093</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.3275653212236566</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2187987543756797</v>
+      </c>
+      <c r="C97">
+        <v>-70.98118307875895</v>
+      </c>
+      <c r="D97">
+        <v>29.53481692124107</v>
+      </c>
+      <c r="E97">
+        <v>107.136</v>
+      </c>
+      <c r="F97">
+        <v>115.216</v>
+      </c>
+      <c r="G97">
+        <v>14.7</v>
+      </c>
+      <c r="H97">
+        <v>113.2</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>8.33</v>
+      </c>
+      <c r="K97">
+        <v>1.47</v>
+      </c>
+      <c r="L97">
+        <v>6.86</v>
+      </c>
+      <c r="M97">
+        <v>21.1651792</v>
+      </c>
+      <c r="N97">
+        <v>-14.3051792</v>
+      </c>
+      <c r="O97">
+        <v>-1.287466128</v>
+      </c>
+      <c r="P97">
+        <v>-13.017713072</v>
+      </c>
+      <c r="Q97">
+        <v>-11.547713072</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.9874890716824601</v>
+      </c>
+      <c r="T97">
+        <v>14.2761813342892</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.02917055386896984</v>
+      </c>
+      <c r="W97">
+        <v>0.1783413692542702</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.324117265210776</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2205427543756797</v>
+      </c>
+      <c r="C98">
+        <v>-72.42811523227402</v>
+      </c>
+      <c r="D98">
+        <v>29.30068476772598</v>
+      </c>
+      <c r="E98">
+        <v>108.3488</v>
+      </c>
+      <c r="F98">
+        <v>116.4288</v>
+      </c>
+      <c r="G98">
+        <v>14.7</v>
+      </c>
+      <c r="H98">
+        <v>113.2</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>8.33</v>
+      </c>
+      <c r="K98">
+        <v>1.47</v>
+      </c>
+      <c r="L98">
+        <v>6.86</v>
+      </c>
+      <c r="M98">
+        <v>21.38797056</v>
+      </c>
+      <c r="N98">
+        <v>-14.52797056</v>
+      </c>
+      <c r="O98">
+        <v>-1.3075173504</v>
+      </c>
+      <c r="P98">
+        <v>-13.2204532096</v>
+      </c>
+      <c r="Q98">
+        <v>-11.7504532096</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.232036339603072</v>
+      </c>
+      <c r="T98">
+        <v>17.84522666786145</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.02886669393283474</v>
+      </c>
+      <c r="W98">
+        <v>0.1783971883245383</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.3207410436981637</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2222867543756797</v>
+      </c>
+      <c r="C99">
+        <v>-73.87136449693926</v>
+      </c>
+      <c r="D99">
+        <v>29.07023550306073</v>
+      </c>
+      <c r="E99">
+        <v>109.5616</v>
+      </c>
+      <c r="F99">
+        <v>117.6416</v>
+      </c>
+      <c r="G99">
+        <v>14.7</v>
+      </c>
+      <c r="H99">
+        <v>113.2</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>8.33</v>
+      </c>
+      <c r="K99">
+        <v>1.47</v>
+      </c>
+      <c r="L99">
+        <v>6.86</v>
+      </c>
+      <c r="M99">
+        <v>21.61076192</v>
+      </c>
+      <c r="N99">
+        <v>-14.75076192</v>
+      </c>
+      <c r="O99">
+        <v>-1.3275685728</v>
+      </c>
+      <c r="P99">
+        <v>-13.4231933472</v>
+      </c>
+      <c r="Q99">
+        <v>-11.9531933472</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.639615119470763</v>
+      </c>
+      <c r="T99">
+        <v>23.7936355571486</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.02856909915002201</v>
+      </c>
+      <c r="W99">
+        <v>0.178451856486141</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.3174344350002446</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2240307543756797</v>
+      </c>
+      <c r="C100">
+        <v>-75.31101709216902</v>
+      </c>
+      <c r="D100">
+        <v>28.84338290783097</v>
+      </c>
+      <c r="E100">
+        <v>110.7744</v>
+      </c>
+      <c r="F100">
+        <v>118.8544</v>
+      </c>
+      <c r="G100">
+        <v>14.7</v>
+      </c>
+      <c r="H100">
+        <v>113.2</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>8.33</v>
+      </c>
+      <c r="K100">
+        <v>1.47</v>
+      </c>
+      <c r="L100">
+        <v>6.86</v>
+      </c>
+      <c r="M100">
+        <v>21.83355328</v>
+      </c>
+      <c r="N100">
+        <v>-14.97355328</v>
+      </c>
+      <c r="O100">
+        <v>-1.3476197952</v>
+      </c>
+      <c r="P100">
+        <v>-13.6259334848</v>
+      </c>
+      <c r="Q100">
+        <v>-12.1559334848</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.454772679206145</v>
+      </c>
+      <c r="T100">
+        <v>35.69045333572291</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.02827757773012383</v>
+      </c>
+      <c r="W100">
+        <v>0.1785054089709762</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.314195308112487</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2257747543756797</v>
+      </c>
+      <c r="C101">
+        <v>-76.74715656692827</v>
+      </c>
+      <c r="D101">
+        <v>28.62004343307173</v>
+      </c>
+      <c r="E101">
+        <v>111.9872</v>
+      </c>
+      <c r="F101">
+        <v>120.0672</v>
+      </c>
+      <c r="G101">
+        <v>14.7</v>
+      </c>
+      <c r="H101">
+        <v>113.2</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>8.33</v>
+      </c>
+      <c r="K101">
+        <v>1.47</v>
+      </c>
+      <c r="L101">
+        <v>6.86</v>
+      </c>
+      <c r="M101">
+        <v>22.05634464</v>
+      </c>
+      <c r="N101">
+        <v>-15.19634464</v>
+      </c>
+      <c r="O101">
+        <v>-1.3676710176</v>
+      </c>
+      <c r="P101">
+        <v>-13.8286736224</v>
+      </c>
+      <c r="Q101">
+        <v>-12.3586736224</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.900245358412289</v>
+      </c>
+      <c r="T101">
+        <v>71.38090667144581</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.02799194563183975</v>
+      </c>
+      <c r="W101">
+        <v>0.1785578795874311</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.3110216181315527</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
